--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9098299512085564</v>
+        <v>0.9098299512085554</v>
       </c>
       <c r="D2">
-        <v>0.9250096925538308</v>
+        <v>0.9250096925538297</v>
       </c>
       <c r="E2">
-        <v>0.9286540740705003</v>
+        <v>0.928654074070499</v>
       </c>
       <c r="F2">
-        <v>0.8811711421957671</v>
+        <v>0.8811711421957652</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.029996858620869</v>
       </c>
       <c r="J2">
-        <v>0.935088171473779</v>
+        <v>0.9350881714737779</v>
       </c>
       <c r="K2">
-        <v>0.9376230318890781</v>
+        <v>0.937623031889077</v>
       </c>
       <c r="L2">
-        <v>0.9412057761610242</v>
+        <v>0.9412057761610231</v>
       </c>
       <c r="M2">
-        <v>0.8945782643024076</v>
+        <v>0.8945782643024059</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9255878348728488</v>
+        <v>0.9255878348728481</v>
       </c>
       <c r="D3">
-        <v>0.9388803991039868</v>
+        <v>0.938880399103986</v>
       </c>
       <c r="E3">
-        <v>0.9418401168196039</v>
+        <v>0.9418401168196024</v>
       </c>
       <c r="F3">
-        <v>0.9008877319474522</v>
+        <v>0.9008877319474511</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.033352753715829</v>
       </c>
       <c r="J3">
-        <v>0.9483352883752385</v>
+        <v>0.9483352883752375</v>
       </c>
       <c r="K3">
-        <v>0.9503600381298634</v>
+        <v>0.9503600381298625</v>
       </c>
       <c r="L3">
-        <v>0.95327553343187</v>
+        <v>0.9532755334318688</v>
       </c>
       <c r="M3">
-        <v>0.9129682669595598</v>
+        <v>0.9129682669595586</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9350360696466935</v>
+        <v>0.9350360696466945</v>
       </c>
       <c r="D4">
-        <v>0.9472067048368625</v>
+        <v>0.9472067048368631</v>
       </c>
       <c r="E4">
-        <v>0.9497605844169844</v>
+        <v>0.949760584416985</v>
       </c>
       <c r="F4">
-        <v>0.9126823509091436</v>
+        <v>0.9126823509091447</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.035325579855805</v>
       </c>
       <c r="J4">
-        <v>0.9562613595414329</v>
+        <v>0.9562613595414337</v>
       </c>
       <c r="K4">
-        <v>0.9579870211872074</v>
+        <v>0.957987021187208</v>
       </c>
       <c r="L4">
-        <v>0.9605057170475282</v>
+        <v>0.9605057170475289</v>
       </c>
       <c r="M4">
-        <v>0.9239629073974941</v>
+        <v>0.9239629073974951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9388526825520266</v>
+        <v>0.9388526825520258</v>
       </c>
       <c r="D5">
-        <v>0.9505720626044062</v>
+        <v>0.9505720626044056</v>
       </c>
       <c r="E5">
-        <v>0.9529630377778535</v>
+        <v>0.9529630377778526</v>
       </c>
       <c r="F5">
         <v>0.9174424464568095</v>
@@ -553,16 +553,16 @@
         <v>1.036112344274413</v>
       </c>
       <c r="J5">
-        <v>0.9594589903345244</v>
+        <v>0.9594589903345236</v>
       </c>
       <c r="K5">
-        <v>0.9610653945779772</v>
+        <v>0.9610653945779767</v>
       </c>
       <c r="L5">
-        <v>0.9634245470945253</v>
+        <v>0.9634245470945245</v>
       </c>
       <c r="M5">
-        <v>0.9283983630100238</v>
+        <v>0.9283983630100239</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9394849820059532</v>
+        <v>0.9394849820059517</v>
       </c>
       <c r="D6">
-        <v>0.9511297082276859</v>
+        <v>0.9511297082276841</v>
       </c>
       <c r="E6">
-        <v>0.9534937536606114</v>
+        <v>0.95349375366061</v>
       </c>
       <c r="F6">
-        <v>0.9182308508015921</v>
+        <v>0.9182308508015902</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.036242070229</v>
       </c>
       <c r="J6">
-        <v>0.9599884986054298</v>
+        <v>0.9599884986054281</v>
       </c>
       <c r="K6">
-        <v>0.9615752357107533</v>
+        <v>0.9615752357107514</v>
       </c>
       <c r="L6">
-        <v>0.9639079994052936</v>
+        <v>0.963907999405292</v>
       </c>
       <c r="M6">
-        <v>0.9291328869165604</v>
+        <v>0.9291328869165587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9350876508970511</v>
+        <v>0.9350876508970505</v>
       </c>
       <c r="D7">
-        <v>0.9472521800511735</v>
+        <v>0.9472521800511732</v>
       </c>
       <c r="E7">
-        <v>0.9498038539670857</v>
+        <v>0.9498038539670849</v>
       </c>
       <c r="F7">
-        <v>0.912746698073178</v>
+        <v>0.9127466980731775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035336254353278</v>
+        <v>1.035336254353279</v>
       </c>
       <c r="J7">
-        <v>0.9563045917873348</v>
+        <v>0.9563045917873343</v>
       </c>
       <c r="K7">
-        <v>0.9580286355284878</v>
+        <v>0.9580286355284875</v>
       </c>
       <c r="L7">
-        <v>0.9605451722520439</v>
+        <v>0.9605451722520432</v>
       </c>
       <c r="M7">
-        <v>0.9240228734655</v>
+        <v>0.9240228734654996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9153265362180792</v>
+        <v>0.9153265362180782</v>
       </c>
       <c r="D8">
-        <v>0.9298456586541374</v>
+        <v>0.9298456586541362</v>
       </c>
       <c r="E8">
-        <v>0.9332501372822988</v>
+        <v>0.9332501372822981</v>
       </c>
       <c r="F8">
-        <v>0.8880561164833332</v>
+        <v>0.8880561164833327</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.031175504683949</v>
       </c>
       <c r="J8">
-        <v>0.9397125476563314</v>
+        <v>0.9397125476563305</v>
       </c>
       <c r="K8">
-        <v>0.9420679533176816</v>
+        <v>0.9420679533176806</v>
       </c>
       <c r="L8">
-        <v>0.9454172078338881</v>
+        <v>0.9454172078338874</v>
       </c>
       <c r="M8">
-        <v>0.9010012117539948</v>
+        <v>0.9010012117539942</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8732609455897382</v>
+        <v>0.8732609455897383</v>
       </c>
       <c r="D9">
-        <v>0.8929048340832239</v>
+        <v>0.8929048340832242</v>
       </c>
       <c r="E9">
-        <v>0.8981735053238631</v>
+        <v>0.8981735053238633</v>
       </c>
       <c r="F9">
-        <v>0.8350780380103813</v>
+        <v>0.8350780380103818</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.022011013486259</v>
       </c>
       <c r="J9">
-        <v>0.9042469711628426</v>
+        <v>0.9042469711628427</v>
       </c>
       <c r="K9">
-        <v>0.9080125564341205</v>
+        <v>0.9080125564341208</v>
       </c>
       <c r="L9">
-        <v>0.9131672070505628</v>
+        <v>0.913167207050563</v>
       </c>
       <c r="M9">
-        <v>0.8515656293572132</v>
+        <v>0.8515656293572139</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8368493286654294</v>
+        <v>0.8368493286654303</v>
       </c>
       <c r="D10">
-        <v>0.861071071486293</v>
+        <v>0.8610710714862936</v>
       </c>
       <c r="E10">
-        <v>0.8680039664649319</v>
+        <v>0.8680039664649329</v>
       </c>
       <c r="F10">
-        <v>0.7884478085270035</v>
+        <v>0.788447808527005</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.013967711239084</v>
       </c>
       <c r="J10">
-        <v>0.873455149512578</v>
+        <v>0.8734551495125789</v>
       </c>
       <c r="K10">
-        <v>0.8785011384614425</v>
+        <v>0.8785011384614433</v>
       </c>
       <c r="L10">
-        <v>0.8852497274832097</v>
+        <v>0.8852497274832106</v>
       </c>
       <c r="M10">
-        <v>0.8080818324924449</v>
+        <v>0.8080818324924465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8174137832307213</v>
+        <v>0.8174137832307229</v>
       </c>
       <c r="D11">
-        <v>0.8441402360277311</v>
+        <v>0.8441402360277322</v>
       </c>
       <c r="E11">
-        <v>0.8519803932380329</v>
+        <v>0.8519803932380347</v>
       </c>
       <c r="F11">
-        <v>0.763115126463568</v>
+        <v>0.7631151264635694</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009699372338262</v>
+        <v>1.009699372338263</v>
       </c>
       <c r="J11">
-        <v>0.8570026404407668</v>
+        <v>0.8570026404407682</v>
       </c>
       <c r="K11">
-        <v>0.8627517834139334</v>
+        <v>0.8627517834139347</v>
       </c>
       <c r="L11">
-        <v>0.8703620218060801</v>
+        <v>0.8703620218060817</v>
       </c>
       <c r="M11">
-        <v>0.7844975096841554</v>
+        <v>0.7844975096841567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.809326852795386</v>
+        <v>0.8093268527953862</v>
       </c>
       <c r="D12">
-        <v>0.8371090460159828</v>
+        <v>0.8371090460159835</v>
       </c>
       <c r="E12">
-        <v>0.8453306384555934</v>
+        <v>0.8453306384555939</v>
       </c>
       <c r="F12">
-        <v>0.7524572874595086</v>
+        <v>0.7524572874595092</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007936126309734</v>
+        <v>1.007936126309735</v>
       </c>
       <c r="J12">
-        <v>0.8501553949110942</v>
+        <v>0.8501553949110946</v>
       </c>
       <c r="K12">
-        <v>0.8562009336150084</v>
+        <v>0.8562009336150087</v>
       </c>
       <c r="L12">
-        <v>0.8641718637864155</v>
+        <v>0.8641718637864161</v>
       </c>
       <c r="M12">
-        <v>0.7745875776581954</v>
+        <v>0.7745875776581963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8111094113045055</v>
+        <v>0.8111094113045045</v>
       </c>
       <c r="D13">
-        <v>0.8386581881465025</v>
+        <v>0.8386581881465017</v>
       </c>
       <c r="E13">
-        <v>0.8467955023719373</v>
+        <v>0.8467955023719368</v>
       </c>
       <c r="F13">
-        <v>0.7548131040035345</v>
+        <v>0.7548131040035339</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008323997908141</v>
       </c>
       <c r="J13">
-        <v>0.8516647417879238</v>
+        <v>0.8516647417879231</v>
       </c>
       <c r="K13">
-        <v>0.8576447571727743</v>
+        <v>0.8576447571727734</v>
       </c>
       <c r="L13">
-        <v>0.8655360727629324</v>
+        <v>0.8655360727629317</v>
       </c>
       <c r="M13">
-        <v>0.7767773546572586</v>
+        <v>0.7767773546572582</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8167659573923235</v>
+        <v>0.816765957392326</v>
       </c>
       <c r="D14">
-        <v>0.8435766827137039</v>
+        <v>0.8435766827137064</v>
       </c>
       <c r="E14">
-        <v>0.85144731007315</v>
+        <v>0.8514473100731526</v>
       </c>
       <c r="F14">
-        <v>0.7622641012646383</v>
+        <v>0.7622641012646415</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.009557797000847</v>
       </c>
       <c r="J14">
-        <v>0.8564541452211895</v>
+        <v>0.8564541452211921</v>
       </c>
       <c r="K14">
-        <v>0.8622269499644593</v>
+        <v>0.8622269499644618</v>
       </c>
       <c r="L14">
-        <v>0.8698660357260015</v>
+        <v>0.8698660357260041</v>
       </c>
       <c r="M14">
-        <v>0.7837059056433728</v>
+        <v>0.7837059056433758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8201216825910413</v>
+        <v>0.8201216825910425</v>
       </c>
       <c r="D15">
-        <v>0.8464964374099987</v>
+        <v>0.8464964374099999</v>
       </c>
       <c r="E15">
-        <v>0.8542093910031497</v>
+        <v>0.8542093910031506</v>
       </c>
       <c r="F15">
-        <v>0.7666674378844482</v>
+        <v>0.7666674378844495</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010291719181015</v>
       </c>
       <c r="J15">
-        <v>0.8592952875124098</v>
+        <v>0.8592952875124108</v>
       </c>
       <c r="K15">
-        <v>0.864945679763134</v>
+        <v>0.8649456797631351</v>
       </c>
       <c r="L15">
-        <v>0.87243542506046</v>
+        <v>0.872435425060461</v>
       </c>
       <c r="M15">
-        <v>0.787802316743701</v>
+        <v>0.7878023167437024</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8380406553925495</v>
+        <v>0.838040655392551</v>
       </c>
       <c r="D16">
-        <v>0.8621103149169208</v>
+        <v>0.8621103149169226</v>
       </c>
       <c r="E16">
-        <v>0.8689880285958528</v>
+        <v>0.8689880285958541</v>
       </c>
       <c r="F16">
-        <v>0.7899891206353602</v>
+        <v>0.7899891206353624</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014230389059213</v>
+        <v>1.014230389059214</v>
       </c>
       <c r="J16">
-        <v>0.874463374305199</v>
+        <v>0.8744633743052006</v>
       </c>
       <c r="K16">
-        <v>0.8794666925548538</v>
+        <v>0.8794666925548554</v>
       </c>
       <c r="L16">
-        <v>0.8861627066323379</v>
+        <v>0.8861627066323392</v>
       </c>
       <c r="M16">
-        <v>0.8095178924124524</v>
+        <v>0.8095178924124544</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8481459913773286</v>
+        <v>0.8481459913773283</v>
       </c>
       <c r="D17">
-        <v>0.8709320841422609</v>
+        <v>0.8709320841422604</v>
       </c>
       <c r="E17">
-        <v>0.8773437154584897</v>
+        <v>0.8773437154584895</v>
       </c>
       <c r="F17">
-        <v>0.8030161752131605</v>
+        <v>0.8030161752131603</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.016461504122946</v>
       </c>
       <c r="J17">
-        <v>0.8830139169843063</v>
+        <v>0.883013916984306</v>
       </c>
       <c r="K17">
-        <v>0.8876573378238959</v>
+        <v>0.8876573378238957</v>
       </c>
       <c r="L17">
         <v>0.893908522881266</v>
       </c>
       <c r="M17">
-        <v>0.8216595288583881</v>
+        <v>0.821659528858388</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.85371445243745</v>
+        <v>0.8537144524374489</v>
       </c>
       <c r="D18">
-        <v>0.8757980877486425</v>
+        <v>0.8757980877486417</v>
       </c>
       <c r="E18">
-        <v>0.8819544068294741</v>
+        <v>0.8819544068294732</v>
       </c>
       <c r="F18">
-        <v>0.8101610786901747</v>
+        <v>0.8101610786901733</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.01769238969662</v>
       </c>
       <c r="J18">
-        <v>0.8877241468891529</v>
+        <v>0.8877241468891519</v>
       </c>
       <c r="K18">
-        <v>0.8921708484903376</v>
+        <v>0.8921708484903366</v>
       </c>
       <c r="L18">
-        <v>0.8981777897603851</v>
+        <v>0.8981777897603843</v>
       </c>
       <c r="M18">
-        <v>0.8283215822699818</v>
+        <v>0.8283215822699805</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8555638253530469</v>
+        <v>0.8555638253530488</v>
       </c>
       <c r="D19">
-        <v>0.8774149076887335</v>
+        <v>0.8774149076887352</v>
       </c>
       <c r="E19">
-        <v>0.8834866721986968</v>
+        <v>0.8834866721986981</v>
       </c>
       <c r="F19">
-        <v>0.8125291107645054</v>
+        <v>0.8125291107645082</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018101275773476</v>
       </c>
       <c r="J19">
-        <v>0.8892882187676622</v>
+        <v>0.8892882187676637</v>
       </c>
       <c r="K19">
-        <v>0.8936698434782915</v>
+        <v>0.8936698434782931</v>
       </c>
       <c r="L19">
-        <v>0.8995958068177314</v>
+        <v>0.8995958068177327</v>
       </c>
       <c r="M19">
-        <v>0.830529954252231</v>
+        <v>0.8305299542522337</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8470969901702506</v>
+        <v>0.8470969901702499</v>
       </c>
       <c r="D20">
-        <v>0.8700157943376639</v>
+        <v>0.8700157943376631</v>
       </c>
       <c r="E20">
-        <v>0.876475642769214</v>
+        <v>0.8764756427692132</v>
       </c>
       <c r="F20">
-        <v>0.8016676307833261</v>
+        <v>0.8016676307833256</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.016229706243962</v>
       </c>
       <c r="J20">
-        <v>0.8821264647424353</v>
+        <v>0.8821264647424347</v>
       </c>
       <c r="K20">
-        <v>0.8868070725795538</v>
+        <v>0.8868070725795533</v>
       </c>
       <c r="L20">
-        <v>0.8931043389542465</v>
+        <v>0.8931043389542461</v>
       </c>
       <c r="M20">
-        <v>0.8204023223025058</v>
+        <v>0.8204023223025053</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8151282877414674</v>
+        <v>0.8151282877414664</v>
       </c>
       <c r="D21">
-        <v>0.8421522813806759</v>
+        <v>0.8421522813806745</v>
       </c>
       <c r="E21">
-        <v>0.8501000021248114</v>
+        <v>0.8501000021248111</v>
       </c>
       <c r="F21">
-        <v>0.7601106697581713</v>
+        <v>0.7601106697581699</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.00920014402188</v>
+        <v>1.009200144021879</v>
       </c>
       <c r="J21">
-        <v>0.85506755863907</v>
+        <v>0.8550675586390691</v>
       </c>
       <c r="K21">
-        <v>0.8609002427919289</v>
+        <v>0.8609002427919279</v>
       </c>
       <c r="L21">
-        <v>0.8686122895645858</v>
+        <v>0.8686122895645851</v>
       </c>
       <c r="M21">
-        <v>0.7817030579446267</v>
+        <v>0.7817030579446255</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7895146222306344</v>
+        <v>0.7895146222306355</v>
       </c>
       <c r="D22">
-        <v>0.8199188093955283</v>
+        <v>0.8199188093955294</v>
       </c>
       <c r="E22">
-        <v>0.8290848566061314</v>
+        <v>0.8290848566061323</v>
       </c>
       <c r="F22">
-        <v>0.7259917093689301</v>
+        <v>0.7259917093689323</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.003661174643862</v>
       </c>
       <c r="J22">
-        <v>0.8333791086845118</v>
+        <v>0.8333791086845129</v>
       </c>
       <c r="K22">
-        <v>0.8401601183702484</v>
+        <v>0.8401601183702494</v>
       </c>
       <c r="L22">
-        <v>0.8490201035916222</v>
+        <v>0.8490201035916229</v>
       </c>
       <c r="M22">
-        <v>0.7500197148488401</v>
+        <v>0.7500197148488418</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8038328154617195</v>
+        <v>0.8038328154617215</v>
       </c>
       <c r="D23">
-        <v>0.8323369704298769</v>
+        <v>0.8323369704298788</v>
       </c>
       <c r="E23">
-        <v>0.8408190352954844</v>
+        <v>0.8408190352954857</v>
       </c>
       <c r="F23">
-        <v>0.7451716768123993</v>
+        <v>0.7451716768124013</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.006743749325194</v>
       </c>
       <c r="J23">
-        <v>0.8455033156578781</v>
+        <v>0.8455033156578798</v>
       </c>
       <c r="K23">
-        <v>0.8517514790149707</v>
+        <v>0.8517514790149727</v>
       </c>
       <c r="L23">
-        <v>0.8599681789868259</v>
+        <v>0.8599681789868271</v>
       </c>
       <c r="M23">
-        <v>0.7678182386732134</v>
+        <v>0.7678182386732152</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1263,10 +1263,10 @@
         <v>0.8704306740066241</v>
       </c>
       <c r="E24">
-        <v>0.8768686850537333</v>
+        <v>0.8768686850537329</v>
       </c>
       <c r="F24">
-        <v>0.8022783532782933</v>
+        <v>0.8022783532782926</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>0.8825283065937863</v>
       </c>
       <c r="K24">
-        <v>0.8871920711999662</v>
+        <v>0.8871920711999661</v>
       </c>
       <c r="L24">
-        <v>0.893468469279565</v>
+        <v>0.8934684692795649</v>
       </c>
       <c r="M24">
-        <v>0.8209716716764</v>
+        <v>0.8209716716763994</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8852598106359781</v>
+        <v>0.8852598106359807</v>
       </c>
       <c r="D25">
-        <v>0.9034251447640115</v>
+        <v>0.903425144764014</v>
       </c>
       <c r="E25">
-        <v>0.9081555641681373</v>
+        <v>0.9081555641681395</v>
       </c>
       <c r="F25">
-        <v>0.8502662852910455</v>
+        <v>0.8502662852910483</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.024651506892008</v>
       </c>
       <c r="J25">
-        <v>0.9143786152250905</v>
+        <v>0.914378615225093</v>
       </c>
       <c r="K25">
-        <v>0.9177337631966621</v>
+        <v>0.9177337631966646</v>
       </c>
       <c r="L25">
-        <v>0.9223692668962106</v>
+        <v>0.9223692668962129</v>
       </c>
       <c r="M25">
-        <v>0.8657390549679499</v>
+        <v>0.8657390549679527</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9098299512085554</v>
+        <v>0.9098299512085564</v>
       </c>
       <c r="D2">
-        <v>0.9250096925538297</v>
+        <v>0.9250096925538308</v>
       </c>
       <c r="E2">
-        <v>0.928654074070499</v>
+        <v>0.9286540740705003</v>
       </c>
       <c r="F2">
-        <v>0.8811711421957652</v>
+        <v>0.8811711421957671</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.029996858620869</v>
       </c>
       <c r="J2">
-        <v>0.9350881714737779</v>
+        <v>0.935088171473779</v>
       </c>
       <c r="K2">
-        <v>0.937623031889077</v>
+        <v>0.9376230318890781</v>
       </c>
       <c r="L2">
-        <v>0.9412057761610231</v>
+        <v>0.9412057761610242</v>
       </c>
       <c r="M2">
-        <v>0.8945782643024059</v>
+        <v>0.8945782643024076</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9255878348728481</v>
+        <v>0.9255878348728488</v>
       </c>
       <c r="D3">
-        <v>0.938880399103986</v>
+        <v>0.9388803991039868</v>
       </c>
       <c r="E3">
-        <v>0.9418401168196024</v>
+        <v>0.9418401168196039</v>
       </c>
       <c r="F3">
-        <v>0.9008877319474511</v>
+        <v>0.9008877319474522</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.033352753715829</v>
       </c>
       <c r="J3">
-        <v>0.9483352883752375</v>
+        <v>0.9483352883752385</v>
       </c>
       <c r="K3">
-        <v>0.9503600381298625</v>
+        <v>0.9503600381298634</v>
       </c>
       <c r="L3">
-        <v>0.9532755334318688</v>
+        <v>0.95327553343187</v>
       </c>
       <c r="M3">
-        <v>0.9129682669595586</v>
+        <v>0.9129682669595598</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9350360696466945</v>
+        <v>0.9350360696466935</v>
       </c>
       <c r="D4">
-        <v>0.9472067048368631</v>
+        <v>0.9472067048368625</v>
       </c>
       <c r="E4">
-        <v>0.949760584416985</v>
+        <v>0.9497605844169844</v>
       </c>
       <c r="F4">
-        <v>0.9126823509091447</v>
+        <v>0.9126823509091436</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.035325579855805</v>
       </c>
       <c r="J4">
-        <v>0.9562613595414337</v>
+        <v>0.9562613595414329</v>
       </c>
       <c r="K4">
-        <v>0.957987021187208</v>
+        <v>0.9579870211872074</v>
       </c>
       <c r="L4">
-        <v>0.9605057170475289</v>
+        <v>0.9605057170475282</v>
       </c>
       <c r="M4">
-        <v>0.9239629073974951</v>
+        <v>0.9239629073974941</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9388526825520258</v>
+        <v>0.9388526825520266</v>
       </c>
       <c r="D5">
-        <v>0.9505720626044056</v>
+        <v>0.9505720626044062</v>
       </c>
       <c r="E5">
-        <v>0.9529630377778526</v>
+        <v>0.9529630377778535</v>
       </c>
       <c r="F5">
         <v>0.9174424464568095</v>
@@ -553,16 +553,16 @@
         <v>1.036112344274413</v>
       </c>
       <c r="J5">
-        <v>0.9594589903345236</v>
+        <v>0.9594589903345244</v>
       </c>
       <c r="K5">
-        <v>0.9610653945779767</v>
+        <v>0.9610653945779772</v>
       </c>
       <c r="L5">
-        <v>0.9634245470945245</v>
+        <v>0.9634245470945253</v>
       </c>
       <c r="M5">
-        <v>0.9283983630100239</v>
+        <v>0.9283983630100238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9394849820059517</v>
+        <v>0.9394849820059532</v>
       </c>
       <c r="D6">
-        <v>0.9511297082276841</v>
+        <v>0.9511297082276859</v>
       </c>
       <c r="E6">
-        <v>0.95349375366061</v>
+        <v>0.9534937536606114</v>
       </c>
       <c r="F6">
-        <v>0.9182308508015902</v>
+        <v>0.9182308508015921</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.036242070229</v>
       </c>
       <c r="J6">
-        <v>0.9599884986054281</v>
+        <v>0.9599884986054298</v>
       </c>
       <c r="K6">
-        <v>0.9615752357107514</v>
+        <v>0.9615752357107533</v>
       </c>
       <c r="L6">
-        <v>0.963907999405292</v>
+        <v>0.9639079994052936</v>
       </c>
       <c r="M6">
-        <v>0.9291328869165587</v>
+        <v>0.9291328869165604</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9350876508970505</v>
+        <v>0.9350876508970511</v>
       </c>
       <c r="D7">
-        <v>0.9472521800511732</v>
+        <v>0.9472521800511735</v>
       </c>
       <c r="E7">
-        <v>0.9498038539670849</v>
+        <v>0.9498038539670857</v>
       </c>
       <c r="F7">
-        <v>0.9127466980731775</v>
+        <v>0.912746698073178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035336254353279</v>
+        <v>1.035336254353278</v>
       </c>
       <c r="J7">
-        <v>0.9563045917873343</v>
+        <v>0.9563045917873348</v>
       </c>
       <c r="K7">
-        <v>0.9580286355284875</v>
+        <v>0.9580286355284878</v>
       </c>
       <c r="L7">
-        <v>0.9605451722520432</v>
+        <v>0.9605451722520439</v>
       </c>
       <c r="M7">
-        <v>0.9240228734654996</v>
+        <v>0.9240228734655</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9153265362180782</v>
+        <v>0.9153265362180792</v>
       </c>
       <c r="D8">
-        <v>0.9298456586541362</v>
+        <v>0.9298456586541374</v>
       </c>
       <c r="E8">
-        <v>0.9332501372822981</v>
+        <v>0.9332501372822988</v>
       </c>
       <c r="F8">
-        <v>0.8880561164833327</v>
+        <v>0.8880561164833332</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.031175504683949</v>
       </c>
       <c r="J8">
-        <v>0.9397125476563305</v>
+        <v>0.9397125476563314</v>
       </c>
       <c r="K8">
-        <v>0.9420679533176806</v>
+        <v>0.9420679533176816</v>
       </c>
       <c r="L8">
-        <v>0.9454172078338874</v>
+        <v>0.9454172078338881</v>
       </c>
       <c r="M8">
-        <v>0.9010012117539942</v>
+        <v>0.9010012117539948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8732609455897383</v>
+        <v>0.8732609455897382</v>
       </c>
       <c r="D9">
-        <v>0.8929048340832242</v>
+        <v>0.8929048340832239</v>
       </c>
       <c r="E9">
-        <v>0.8981735053238633</v>
+        <v>0.8981735053238631</v>
       </c>
       <c r="F9">
-        <v>0.8350780380103818</v>
+        <v>0.8350780380103813</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.022011013486259</v>
       </c>
       <c r="J9">
-        <v>0.9042469711628427</v>
+        <v>0.9042469711628426</v>
       </c>
       <c r="K9">
-        <v>0.9080125564341208</v>
+        <v>0.9080125564341205</v>
       </c>
       <c r="L9">
-        <v>0.913167207050563</v>
+        <v>0.9131672070505628</v>
       </c>
       <c r="M9">
-        <v>0.8515656293572139</v>
+        <v>0.8515656293572132</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8368493286654303</v>
+        <v>0.8368493286654294</v>
       </c>
       <c r="D10">
-        <v>0.8610710714862936</v>
+        <v>0.861071071486293</v>
       </c>
       <c r="E10">
-        <v>0.8680039664649329</v>
+        <v>0.8680039664649319</v>
       </c>
       <c r="F10">
-        <v>0.788447808527005</v>
+        <v>0.7884478085270035</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.013967711239084</v>
       </c>
       <c r="J10">
-        <v>0.8734551495125789</v>
+        <v>0.873455149512578</v>
       </c>
       <c r="K10">
-        <v>0.8785011384614433</v>
+        <v>0.8785011384614425</v>
       </c>
       <c r="L10">
-        <v>0.8852497274832106</v>
+        <v>0.8852497274832097</v>
       </c>
       <c r="M10">
-        <v>0.8080818324924465</v>
+        <v>0.8080818324924449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8174137832307229</v>
+        <v>0.8174137832307213</v>
       </c>
       <c r="D11">
-        <v>0.8441402360277322</v>
+        <v>0.8441402360277311</v>
       </c>
       <c r="E11">
-        <v>0.8519803932380347</v>
+        <v>0.8519803932380329</v>
       </c>
       <c r="F11">
-        <v>0.7631151264635694</v>
+        <v>0.763115126463568</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009699372338263</v>
+        <v>1.009699372338262</v>
       </c>
       <c r="J11">
-        <v>0.8570026404407682</v>
+        <v>0.8570026404407668</v>
       </c>
       <c r="K11">
-        <v>0.8627517834139347</v>
+        <v>0.8627517834139334</v>
       </c>
       <c r="L11">
-        <v>0.8703620218060817</v>
+        <v>0.8703620218060801</v>
       </c>
       <c r="M11">
-        <v>0.7844975096841567</v>
+        <v>0.7844975096841554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8093268527953862</v>
+        <v>0.809326852795386</v>
       </c>
       <c r="D12">
-        <v>0.8371090460159835</v>
+        <v>0.8371090460159828</v>
       </c>
       <c r="E12">
-        <v>0.8453306384555939</v>
+        <v>0.8453306384555934</v>
       </c>
       <c r="F12">
-        <v>0.7524572874595092</v>
+        <v>0.7524572874595086</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007936126309735</v>
+        <v>1.007936126309734</v>
       </c>
       <c r="J12">
-        <v>0.8501553949110946</v>
+        <v>0.8501553949110942</v>
       </c>
       <c r="K12">
-        <v>0.8562009336150087</v>
+        <v>0.8562009336150084</v>
       </c>
       <c r="L12">
-        <v>0.8641718637864161</v>
+        <v>0.8641718637864155</v>
       </c>
       <c r="M12">
-        <v>0.7745875776581963</v>
+        <v>0.7745875776581954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8111094113045045</v>
+        <v>0.8111094113045055</v>
       </c>
       <c r="D13">
-        <v>0.8386581881465017</v>
+        <v>0.8386581881465025</v>
       </c>
       <c r="E13">
-        <v>0.8467955023719368</v>
+        <v>0.8467955023719373</v>
       </c>
       <c r="F13">
-        <v>0.7548131040035339</v>
+        <v>0.7548131040035345</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008323997908141</v>
       </c>
       <c r="J13">
-        <v>0.8516647417879231</v>
+        <v>0.8516647417879238</v>
       </c>
       <c r="K13">
-        <v>0.8576447571727734</v>
+        <v>0.8576447571727743</v>
       </c>
       <c r="L13">
-        <v>0.8655360727629317</v>
+        <v>0.8655360727629324</v>
       </c>
       <c r="M13">
-        <v>0.7767773546572582</v>
+        <v>0.7767773546572586</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.816765957392326</v>
+        <v>0.8167659573923235</v>
       </c>
       <c r="D14">
-        <v>0.8435766827137064</v>
+        <v>0.8435766827137039</v>
       </c>
       <c r="E14">
-        <v>0.8514473100731526</v>
+        <v>0.85144731007315</v>
       </c>
       <c r="F14">
-        <v>0.7622641012646415</v>
+        <v>0.7622641012646383</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.009557797000847</v>
       </c>
       <c r="J14">
-        <v>0.8564541452211921</v>
+        <v>0.8564541452211895</v>
       </c>
       <c r="K14">
-        <v>0.8622269499644618</v>
+        <v>0.8622269499644593</v>
       </c>
       <c r="L14">
-        <v>0.8698660357260041</v>
+        <v>0.8698660357260015</v>
       </c>
       <c r="M14">
-        <v>0.7837059056433758</v>
+        <v>0.7837059056433728</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8201216825910425</v>
+        <v>0.8201216825910413</v>
       </c>
       <c r="D15">
-        <v>0.8464964374099999</v>
+        <v>0.8464964374099987</v>
       </c>
       <c r="E15">
-        <v>0.8542093910031506</v>
+        <v>0.8542093910031497</v>
       </c>
       <c r="F15">
-        <v>0.7666674378844495</v>
+        <v>0.7666674378844482</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010291719181015</v>
       </c>
       <c r="J15">
-        <v>0.8592952875124108</v>
+        <v>0.8592952875124098</v>
       </c>
       <c r="K15">
-        <v>0.8649456797631351</v>
+        <v>0.864945679763134</v>
       </c>
       <c r="L15">
-        <v>0.872435425060461</v>
+        <v>0.87243542506046</v>
       </c>
       <c r="M15">
-        <v>0.7878023167437024</v>
+        <v>0.787802316743701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.838040655392551</v>
+        <v>0.8380406553925495</v>
       </c>
       <c r="D16">
-        <v>0.8621103149169226</v>
+        <v>0.8621103149169208</v>
       </c>
       <c r="E16">
-        <v>0.8689880285958541</v>
+        <v>0.8689880285958528</v>
       </c>
       <c r="F16">
-        <v>0.7899891206353624</v>
+        <v>0.7899891206353602</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014230389059214</v>
+        <v>1.014230389059213</v>
       </c>
       <c r="J16">
-        <v>0.8744633743052006</v>
+        <v>0.874463374305199</v>
       </c>
       <c r="K16">
-        <v>0.8794666925548554</v>
+        <v>0.8794666925548538</v>
       </c>
       <c r="L16">
-        <v>0.8861627066323392</v>
+        <v>0.8861627066323379</v>
       </c>
       <c r="M16">
-        <v>0.8095178924124544</v>
+        <v>0.8095178924124524</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8481459913773283</v>
+        <v>0.8481459913773286</v>
       </c>
       <c r="D17">
-        <v>0.8709320841422604</v>
+        <v>0.8709320841422609</v>
       </c>
       <c r="E17">
-        <v>0.8773437154584895</v>
+        <v>0.8773437154584897</v>
       </c>
       <c r="F17">
-        <v>0.8030161752131603</v>
+        <v>0.8030161752131605</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.016461504122946</v>
       </c>
       <c r="J17">
-        <v>0.883013916984306</v>
+        <v>0.8830139169843063</v>
       </c>
       <c r="K17">
-        <v>0.8876573378238957</v>
+        <v>0.8876573378238959</v>
       </c>
       <c r="L17">
         <v>0.893908522881266</v>
       </c>
       <c r="M17">
-        <v>0.821659528858388</v>
+        <v>0.8216595288583881</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8537144524374489</v>
+        <v>0.85371445243745</v>
       </c>
       <c r="D18">
-        <v>0.8757980877486417</v>
+        <v>0.8757980877486425</v>
       </c>
       <c r="E18">
-        <v>0.8819544068294732</v>
+        <v>0.8819544068294741</v>
       </c>
       <c r="F18">
-        <v>0.8101610786901733</v>
+        <v>0.8101610786901747</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.01769238969662</v>
       </c>
       <c r="J18">
-        <v>0.8877241468891519</v>
+        <v>0.8877241468891529</v>
       </c>
       <c r="K18">
-        <v>0.8921708484903366</v>
+        <v>0.8921708484903376</v>
       </c>
       <c r="L18">
-        <v>0.8981777897603843</v>
+        <v>0.8981777897603851</v>
       </c>
       <c r="M18">
-        <v>0.8283215822699805</v>
+        <v>0.8283215822699818</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8555638253530488</v>
+        <v>0.8555638253530469</v>
       </c>
       <c r="D19">
-        <v>0.8774149076887352</v>
+        <v>0.8774149076887335</v>
       </c>
       <c r="E19">
-        <v>0.8834866721986981</v>
+        <v>0.8834866721986968</v>
       </c>
       <c r="F19">
-        <v>0.8125291107645082</v>
+        <v>0.8125291107645054</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018101275773476</v>
       </c>
       <c r="J19">
-        <v>0.8892882187676637</v>
+        <v>0.8892882187676622</v>
       </c>
       <c r="K19">
-        <v>0.8936698434782931</v>
+        <v>0.8936698434782915</v>
       </c>
       <c r="L19">
-        <v>0.8995958068177327</v>
+        <v>0.8995958068177314</v>
       </c>
       <c r="M19">
-        <v>0.8305299542522337</v>
+        <v>0.830529954252231</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8470969901702499</v>
+        <v>0.8470969901702506</v>
       </c>
       <c r="D20">
-        <v>0.8700157943376631</v>
+        <v>0.8700157943376639</v>
       </c>
       <c r="E20">
-        <v>0.8764756427692132</v>
+        <v>0.876475642769214</v>
       </c>
       <c r="F20">
-        <v>0.8016676307833256</v>
+        <v>0.8016676307833261</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.016229706243962</v>
       </c>
       <c r="J20">
-        <v>0.8821264647424347</v>
+        <v>0.8821264647424353</v>
       </c>
       <c r="K20">
-        <v>0.8868070725795533</v>
+        <v>0.8868070725795538</v>
       </c>
       <c r="L20">
-        <v>0.8931043389542461</v>
+        <v>0.8931043389542465</v>
       </c>
       <c r="M20">
-        <v>0.8204023223025053</v>
+        <v>0.8204023223025058</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8151282877414664</v>
+        <v>0.8151282877414674</v>
       </c>
       <c r="D21">
-        <v>0.8421522813806745</v>
+        <v>0.8421522813806759</v>
       </c>
       <c r="E21">
-        <v>0.8501000021248111</v>
+        <v>0.8501000021248114</v>
       </c>
       <c r="F21">
-        <v>0.7601106697581699</v>
+        <v>0.7601106697581713</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009200144021879</v>
+        <v>1.00920014402188</v>
       </c>
       <c r="J21">
-        <v>0.8550675586390691</v>
+        <v>0.85506755863907</v>
       </c>
       <c r="K21">
-        <v>0.8609002427919279</v>
+        <v>0.8609002427919289</v>
       </c>
       <c r="L21">
-        <v>0.8686122895645851</v>
+        <v>0.8686122895645858</v>
       </c>
       <c r="M21">
-        <v>0.7817030579446255</v>
+        <v>0.7817030579446267</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7895146222306355</v>
+        <v>0.7895146222306344</v>
       </c>
       <c r="D22">
-        <v>0.8199188093955294</v>
+        <v>0.8199188093955283</v>
       </c>
       <c r="E22">
-        <v>0.8290848566061323</v>
+        <v>0.8290848566061314</v>
       </c>
       <c r="F22">
-        <v>0.7259917093689323</v>
+        <v>0.7259917093689301</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.003661174643862</v>
       </c>
       <c r="J22">
-        <v>0.8333791086845129</v>
+        <v>0.8333791086845118</v>
       </c>
       <c r="K22">
-        <v>0.8401601183702494</v>
+        <v>0.8401601183702484</v>
       </c>
       <c r="L22">
-        <v>0.8490201035916229</v>
+        <v>0.8490201035916222</v>
       </c>
       <c r="M22">
-        <v>0.7500197148488418</v>
+        <v>0.7500197148488401</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8038328154617215</v>
+        <v>0.8038328154617195</v>
       </c>
       <c r="D23">
-        <v>0.8323369704298788</v>
+        <v>0.8323369704298769</v>
       </c>
       <c r="E23">
-        <v>0.8408190352954857</v>
+        <v>0.8408190352954844</v>
       </c>
       <c r="F23">
-        <v>0.7451716768124013</v>
+        <v>0.7451716768123993</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.006743749325194</v>
       </c>
       <c r="J23">
-        <v>0.8455033156578798</v>
+        <v>0.8455033156578781</v>
       </c>
       <c r="K23">
-        <v>0.8517514790149727</v>
+        <v>0.8517514790149707</v>
       </c>
       <c r="L23">
-        <v>0.8599681789868271</v>
+        <v>0.8599681789868259</v>
       </c>
       <c r="M23">
-        <v>0.7678182386732152</v>
+        <v>0.7678182386732134</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1263,10 +1263,10 @@
         <v>0.8704306740066241</v>
       </c>
       <c r="E24">
-        <v>0.8768686850537329</v>
+        <v>0.8768686850537333</v>
       </c>
       <c r="F24">
-        <v>0.8022783532782926</v>
+        <v>0.8022783532782933</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>0.8825283065937863</v>
       </c>
       <c r="K24">
-        <v>0.8871920711999661</v>
+        <v>0.8871920711999662</v>
       </c>
       <c r="L24">
-        <v>0.8934684692795649</v>
+        <v>0.893468469279565</v>
       </c>
       <c r="M24">
-        <v>0.8209716716763994</v>
+        <v>0.8209716716764</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8852598106359807</v>
+        <v>0.8852598106359781</v>
       </c>
       <c r="D25">
-        <v>0.903425144764014</v>
+        <v>0.9034251447640115</v>
       </c>
       <c r="E25">
-        <v>0.9081555641681395</v>
+        <v>0.9081555641681373</v>
       </c>
       <c r="F25">
-        <v>0.8502662852910483</v>
+        <v>0.8502662852910455</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.024651506892008</v>
       </c>
       <c r="J25">
-        <v>0.914378615225093</v>
+        <v>0.9143786152250905</v>
       </c>
       <c r="K25">
-        <v>0.9177337631966646</v>
+        <v>0.9177337631966621</v>
       </c>
       <c r="L25">
-        <v>0.9223692668962129</v>
+        <v>0.9223692668962106</v>
       </c>
       <c r="M25">
-        <v>0.8657390549679527</v>
+        <v>0.8657390549679499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9098299512085564</v>
+        <v>0.9099031178379903</v>
       </c>
       <c r="D2">
-        <v>0.9250096925538308</v>
+        <v>0.9250770181789622</v>
       </c>
       <c r="E2">
-        <v>0.9286540740705003</v>
+        <v>0.9287173766511244</v>
       </c>
       <c r="F2">
-        <v>0.8811711421957671</v>
+        <v>0.8812494728563329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029996858620869</v>
+        <v>1.030007708000877</v>
       </c>
       <c r="J2">
-        <v>0.935088171473779</v>
+        <v>0.935158490166793</v>
       </c>
       <c r="K2">
-        <v>0.9376230318890781</v>
+        <v>0.9376892131546595</v>
       </c>
       <c r="L2">
-        <v>0.9412057761610242</v>
+        <v>0.9412680136202574</v>
       </c>
       <c r="M2">
-        <v>0.8945782643024076</v>
+        <v>0.8946550843672439</v>
+      </c>
+      <c r="N2">
+        <v>0.9587765613367986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9255878348728488</v>
+        <v>0.9256464499378199</v>
       </c>
       <c r="D3">
-        <v>0.9388803991039868</v>
+        <v>0.938934493915084</v>
       </c>
       <c r="E3">
-        <v>0.9418401168196039</v>
+        <v>0.9418909837956693</v>
       </c>
       <c r="F3">
-        <v>0.9008877319474522</v>
+        <v>0.9009498816779563</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033352753715829</v>
+        <v>1.033361369141157</v>
       </c>
       <c r="J3">
-        <v>0.9483352883752385</v>
+        <v>0.9483919263691193</v>
       </c>
       <c r="K3">
-        <v>0.9503600381298634</v>
+        <v>0.9504133215039796</v>
       </c>
       <c r="L3">
-        <v>0.95327553343187</v>
+        <v>0.9533256434715166</v>
       </c>
       <c r="M3">
-        <v>0.9129682669595598</v>
+        <v>0.9130293804198021</v>
+      </c>
+      <c r="N3">
+        <v>0.9677208807719301</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9350360696466935</v>
+        <v>0.9350865314278852</v>
       </c>
       <c r="D4">
-        <v>0.9472067048368625</v>
+        <v>0.9472533548924551</v>
       </c>
       <c r="E4">
-        <v>0.9497605844169844</v>
+        <v>0.9498044548072049</v>
       </c>
       <c r="F4">
-        <v>0.9126823509091436</v>
+        <v>0.9127355711241466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035325579855805</v>
+        <v>1.035332960858276</v>
       </c>
       <c r="J4">
-        <v>0.9562613595414329</v>
+        <v>0.9563102706521359</v>
       </c>
       <c r="K4">
-        <v>0.9579870211872074</v>
+        <v>0.9580330264200357</v>
       </c>
       <c r="L4">
-        <v>0.9605057170475282</v>
+        <v>0.9605489851364842</v>
       </c>
       <c r="M4">
-        <v>0.9239629073974941</v>
+        <v>0.9240153193713289</v>
+      </c>
+      <c r="N4">
+        <v>0.973072315340233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9388526825520266</v>
+        <v>0.9388999585390062</v>
       </c>
       <c r="D5">
-        <v>0.9505720626044062</v>
+        <v>0.950615797481551</v>
       </c>
       <c r="E5">
-        <v>0.9529630377778535</v>
+        <v>0.9530041686784237</v>
       </c>
       <c r="F5">
-        <v>0.9174424464568095</v>
+        <v>0.9174922038152192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036112344274413</v>
+        <v>1.036119246379379</v>
       </c>
       <c r="J5">
-        <v>0.9594589903345244</v>
+        <v>0.9595048697313027</v>
       </c>
       <c r="K5">
-        <v>0.9610653945779772</v>
+        <v>0.9611085455613614</v>
       </c>
       <c r="L5">
-        <v>0.9634245470945253</v>
+        <v>0.9634651323170824</v>
       </c>
       <c r="M5">
-        <v>0.9283983630100238</v>
+        <v>0.9284473938409638</v>
+      </c>
+      <c r="N5">
+        <v>0.9752311622738858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9394849820059532</v>
+        <v>0.9395317358582911</v>
       </c>
       <c r="D6">
-        <v>0.9511297082276859</v>
+        <v>0.9511729649874205</v>
       </c>
       <c r="E6">
-        <v>0.9534937536606114</v>
+        <v>0.9535344352705639</v>
       </c>
       <c r="F6">
-        <v>0.9182308508015921</v>
+        <v>0.9182800420098407</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036242070229</v>
+        <v>1.036248894029961</v>
       </c>
       <c r="J6">
-        <v>0.9599884986054298</v>
+        <v>0.9600338804367827</v>
       </c>
       <c r="K6">
-        <v>0.9615752357107533</v>
+        <v>0.9616179183318081</v>
       </c>
       <c r="L6">
-        <v>0.9639079994052936</v>
+        <v>0.9639481444068763</v>
       </c>
       <c r="M6">
-        <v>0.9291328869165604</v>
+        <v>0.9291813645937115</v>
+      </c>
+      <c r="N6">
+        <v>0.9755886474505665</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9350876508970511</v>
+        <v>0.9351380692249875</v>
       </c>
       <c r="D7">
-        <v>0.9472521800511735</v>
+        <v>0.947298790368252</v>
       </c>
       <c r="E7">
-        <v>0.9498038539670857</v>
+        <v>0.9498476870128902</v>
       </c>
       <c r="F7">
-        <v>0.912746698073178</v>
+        <v>0.9127998709573042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035336254353278</v>
+        <v>1.035343628810707</v>
       </c>
       <c r="J7">
-        <v>0.9563045917873348</v>
+        <v>0.956353461594352</v>
       </c>
       <c r="K7">
-        <v>0.9580286355284878</v>
+        <v>0.9580746018699793</v>
       </c>
       <c r="L7">
-        <v>0.9605451722520439</v>
+        <v>0.9605884037836069</v>
       </c>
       <c r="M7">
-        <v>0.9240228734655</v>
+        <v>0.9240752392509384</v>
+      </c>
+      <c r="N7">
+        <v>0.9731015035707865</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9153265362180792</v>
+        <v>0.9153944802590886</v>
       </c>
       <c r="D8">
-        <v>0.9298456586541374</v>
+        <v>0.9299082438952662</v>
       </c>
       <c r="E8">
-        <v>0.9332501372822988</v>
+        <v>0.9333089842470795</v>
       </c>
       <c r="F8">
-        <v>0.8880561164833332</v>
+        <v>0.8881286034546902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031175504683949</v>
+        <v>1.031185547838513</v>
       </c>
       <c r="J8">
-        <v>0.9397125476563314</v>
+        <v>0.9397779720270985</v>
       </c>
       <c r="K8">
-        <v>0.9420679533176816</v>
+        <v>0.9421295186748658</v>
       </c>
       <c r="L8">
-        <v>0.9454172078338881</v>
+        <v>0.9454751047872531</v>
       </c>
       <c r="M8">
-        <v>0.9010012117539948</v>
+        <v>0.901072368269261</v>
+      </c>
+      <c r="N8">
+        <v>0.9618988917852239</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8732609455897382</v>
+        <v>0.8733739318144921</v>
       </c>
       <c r="D9">
-        <v>0.8929048340832239</v>
+        <v>0.8930080192338073</v>
       </c>
       <c r="E9">
-        <v>0.8981735053238631</v>
+        <v>0.8982705145908565</v>
       </c>
       <c r="F9">
-        <v>0.8350780380103813</v>
+        <v>0.8352022811237627</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022011013486259</v>
+        <v>1.022028157933882</v>
       </c>
       <c r="J9">
-        <v>0.9042469711628426</v>
+        <v>0.9043540862086547</v>
       </c>
       <c r="K9">
-        <v>0.9080125564341205</v>
+        <v>0.908113491370517</v>
       </c>
       <c r="L9">
-        <v>0.9131672070505628</v>
+        <v>0.9132621335435113</v>
       </c>
       <c r="M9">
-        <v>0.8515656293572132</v>
+        <v>0.8516866298803472</v>
+      </c>
+      <c r="N9">
+        <v>0.9379557656411096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8368493286654294</v>
+        <v>0.8370149764680589</v>
       </c>
       <c r="D10">
-        <v>0.861071071486293</v>
+        <v>0.8612210202005226</v>
       </c>
       <c r="E10">
-        <v>0.8680039664649319</v>
+        <v>0.8681449246429966</v>
       </c>
       <c r="F10">
-        <v>0.7884478085270035</v>
+        <v>0.7886364337099929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013967711239084</v>
+        <v>1.013993492920787</v>
       </c>
       <c r="J10">
-        <v>0.873455149512578</v>
+        <v>0.8736097871133733</v>
       </c>
       <c r="K10">
-        <v>0.8785011384614425</v>
+        <v>0.8786470582078255</v>
       </c>
       <c r="L10">
-        <v>0.8852497274832097</v>
+        <v>0.885386979797117</v>
       </c>
       <c r="M10">
-        <v>0.8080818324924449</v>
+        <v>0.8082639977903935</v>
+      </c>
+      <c r="N10">
+        <v>0.9171805246872746</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8174137832307213</v>
+        <v>0.8176162949038602</v>
       </c>
       <c r="D11">
-        <v>0.8441402360277311</v>
+        <v>0.8443225726303319</v>
       </c>
       <c r="E11">
-        <v>0.8519803932380329</v>
+        <v>0.8521517808777991</v>
       </c>
       <c r="F11">
-        <v>0.763115126463568</v>
+        <v>0.7633511849352774</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009699372338262</v>
+        <v>1.009731338936936</v>
       </c>
       <c r="J11">
-        <v>0.8570026404407668</v>
+        <v>0.8571899834312843</v>
       </c>
       <c r="K11">
-        <v>0.8627517834139334</v>
+        <v>0.8629287061851225</v>
       </c>
       <c r="L11">
-        <v>0.8703620218060801</v>
+        <v>0.8705284481153821</v>
       </c>
       <c r="M11">
-        <v>0.7844975096841554</v>
+        <v>0.7847242821170107</v>
+      </c>
+      <c r="N11">
+        <v>0.9060890098735779</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.809326852795386</v>
+        <v>0.8095473553337751</v>
       </c>
       <c r="D12">
-        <v>0.8371090460159828</v>
+        <v>0.8373071075589378</v>
       </c>
       <c r="E12">
-        <v>0.8453306384555934</v>
+        <v>0.8455167972944949</v>
       </c>
       <c r="F12">
-        <v>0.7524572874595086</v>
+        <v>0.7527171566942985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007936126309734</v>
+        <v>1.007971138990408</v>
       </c>
       <c r="J12">
-        <v>0.8501553949110942</v>
+        <v>0.8503585734520522</v>
       </c>
       <c r="K12">
-        <v>0.8562009336150084</v>
+        <v>0.8563928767195337</v>
       </c>
       <c r="L12">
-        <v>0.8641718637864155</v>
+        <v>0.8643524246080533</v>
       </c>
       <c r="M12">
-        <v>0.7745875776581954</v>
+        <v>0.7748366249150352</v>
+      </c>
+      <c r="N12">
+        <v>0.9014755142316896</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8111094113045055</v>
+        <v>0.8113257887330034</v>
       </c>
       <c r="D13">
-        <v>0.8386581881465025</v>
+        <v>0.8388526483197051</v>
       </c>
       <c r="E13">
-        <v>0.8467955023719373</v>
+        <v>0.8469782784336557</v>
       </c>
       <c r="F13">
-        <v>0.7548131040035345</v>
+        <v>0.7550674767617838</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008323997908141</v>
+        <v>1.008358310849751</v>
       </c>
       <c r="J13">
-        <v>0.8516647417879238</v>
+        <v>0.8518642957565992</v>
       </c>
       <c r="K13">
-        <v>0.8576447571727743</v>
+        <v>0.857833261860643</v>
       </c>
       <c r="L13">
-        <v>0.8655360727629324</v>
+        <v>0.8657133979427396</v>
       </c>
       <c r="M13">
-        <v>0.7767773546572586</v>
+        <v>0.7770212662760414</v>
+      </c>
+      <c r="N13">
+        <v>0.9024923217753381</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8167659573923235</v>
+        <v>0.8169698446431263</v>
       </c>
       <c r="D14">
-        <v>0.8435766827137039</v>
+        <v>0.843760223365044</v>
       </c>
       <c r="E14">
-        <v>0.85144731007315</v>
+        <v>0.8516198288004508</v>
       </c>
       <c r="F14">
-        <v>0.7622641012646383</v>
+        <v>0.7625019654027378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009557797000847</v>
+        <v>1.009589995954296</v>
       </c>
       <c r="J14">
-        <v>0.8564541452211895</v>
+        <v>0.8566427016170174</v>
       </c>
       <c r="K14">
-        <v>0.8622269499644593</v>
+        <v>0.8624050234915855</v>
       </c>
       <c r="L14">
-        <v>0.8698660357260015</v>
+        <v>0.8700335449225742</v>
       </c>
       <c r="M14">
-        <v>0.7837059056433728</v>
+        <v>0.783934369808063</v>
+      </c>
+      <c r="N14">
+        <v>0.9057193853812964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8201216825910413</v>
+        <v>0.8203185588265567</v>
       </c>
       <c r="D15">
-        <v>0.8464964374099987</v>
+        <v>0.8466738381449247</v>
       </c>
       <c r="E15">
-        <v>0.8542093910031497</v>
+        <v>0.8543761417559435</v>
       </c>
       <c r="F15">
-        <v>0.7666674378844482</v>
+        <v>0.7668961251608511</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010291719181015</v>
+        <v>1.010322734911281</v>
       </c>
       <c r="J15">
-        <v>0.8592952875124098</v>
+        <v>0.8594776546231431</v>
       </c>
       <c r="K15">
-        <v>0.864945679763134</v>
+        <v>0.8651178839076352</v>
       </c>
       <c r="L15">
-        <v>0.87243542506046</v>
+        <v>0.8725974110447624</v>
       </c>
       <c r="M15">
-        <v>0.787802316743701</v>
+        <v>0.7880221785564228</v>
+      </c>
+      <c r="N15">
+        <v>0.9076341089646706</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8380406553925495</v>
+        <v>0.8382042845683514</v>
       </c>
       <c r="D16">
-        <v>0.8621103149169208</v>
+        <v>0.8622584827374277</v>
       </c>
       <c r="E16">
-        <v>0.8689880285958528</v>
+        <v>0.8691273133360966</v>
       </c>
       <c r="F16">
-        <v>0.7899891206353602</v>
+        <v>0.7901752031242621</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014230389059213</v>
+        <v>1.014255834775996</v>
       </c>
       <c r="J16">
-        <v>0.874463374305199</v>
+        <v>0.8746162093781994</v>
       </c>
       <c r="K16">
-        <v>0.8794666925548538</v>
+        <v>0.8796109044765975</v>
       </c>
       <c r="L16">
-        <v>0.8861627066323379</v>
+        <v>0.8862983519243384</v>
       </c>
       <c r="M16">
-        <v>0.8095178924124524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8096976566726738</v>
+      </c>
+      <c r="N16">
+        <v>0.9178604671392764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8481459913773286</v>
+        <v>0.8482934183598549</v>
       </c>
       <c r="D17">
-        <v>0.8709320841422609</v>
+        <v>0.8710659266534314</v>
       </c>
       <c r="E17">
-        <v>0.8773437154584897</v>
+        <v>0.8774695384180807</v>
       </c>
       <c r="F17">
-        <v>0.8030161752131605</v>
+        <v>0.8031820617561942</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016461504122946</v>
+        <v>1.016484265706212</v>
       </c>
       <c r="J17">
-        <v>0.8830139169843063</v>
+        <v>0.8831522339892655</v>
       </c>
       <c r="K17">
-        <v>0.8876573378238959</v>
+        <v>0.8877877984263924</v>
       </c>
       <c r="L17">
-        <v>0.893908522881266</v>
+        <v>0.8940312288205082</v>
       </c>
       <c r="M17">
-        <v>0.8216595288583881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.821820182582091</v>
+      </c>
+      <c r="N17">
+        <v>0.923627872402469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.85371445243745</v>
+        <v>0.8538535889287906</v>
       </c>
       <c r="D18">
-        <v>0.8757980877486425</v>
+        <v>0.8759245774122215</v>
       </c>
       <c r="E18">
-        <v>0.8819544068294741</v>
+        <v>0.8820733196223554</v>
       </c>
       <c r="F18">
-        <v>0.8101610786901747</v>
+        <v>0.8103167793758993</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01769238969662</v>
+        <v>1.017713787230462</v>
       </c>
       <c r="J18">
-        <v>0.8877241468891529</v>
+        <v>0.887854998059371</v>
       </c>
       <c r="K18">
-        <v>0.8921708484903376</v>
+        <v>0.8922942405554366</v>
       </c>
       <c r="L18">
-        <v>0.8981777897603851</v>
+        <v>0.8982938447984252</v>
       </c>
       <c r="M18">
-        <v>0.8283215822699818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8284725693175563</v>
+      </c>
+      <c r="N18">
+        <v>0.9268056231071712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8555638253530469</v>
+        <v>0.8557002989612429</v>
       </c>
       <c r="D19">
-        <v>0.8774149076887335</v>
+        <v>0.8775390321836848</v>
       </c>
       <c r="E19">
-        <v>0.8834866721986968</v>
+        <v>0.8836033621451689</v>
       </c>
       <c r="F19">
-        <v>0.8125291107645054</v>
+        <v>0.8126815613324321</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018101275773476</v>
+        <v>1.018122236658004</v>
       </c>
       <c r="J19">
-        <v>0.8892882187676622</v>
+        <v>0.8894166662262467</v>
       </c>
       <c r="K19">
-        <v>0.8936698434782915</v>
+        <v>0.8937909602179969</v>
       </c>
       <c r="L19">
-        <v>0.8995958068177314</v>
+        <v>0.8997097210118946</v>
       </c>
       <c r="M19">
-        <v>0.830529954252231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8306778526338812</v>
+      </c>
+      <c r="N19">
+        <v>0.9278609166497266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8470969901702506</v>
+        <v>0.8472460269865384</v>
       </c>
       <c r="D20">
-        <v>0.8700157943376639</v>
+        <v>0.8701510627731399</v>
       </c>
       <c r="E20">
-        <v>0.876475642769214</v>
+        <v>0.8766028057631775</v>
       </c>
       <c r="F20">
-        <v>0.8016676307833261</v>
+        <v>0.8018355069120606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016229706243962</v>
+        <v>1.016252733470773</v>
       </c>
       <c r="J20">
-        <v>0.8821264647424353</v>
+        <v>0.8822662284305156</v>
       </c>
       <c r="K20">
-        <v>0.8868070725795538</v>
+        <v>0.8869389031259184</v>
       </c>
       <c r="L20">
-        <v>0.8931043389542465</v>
+        <v>0.8932283339189364</v>
       </c>
       <c r="M20">
-        <v>0.8204023223025058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8205648619244256</v>
+      </c>
+      <c r="N20">
+        <v>0.9230292040600035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8151282877414674</v>
+        <v>0.8153357012179988</v>
       </c>
       <c r="D21">
-        <v>0.8421522813806759</v>
+        <v>0.8423389072086871</v>
       </c>
       <c r="E21">
-        <v>0.8501000021248114</v>
+        <v>0.8502754190273115</v>
       </c>
       <c r="F21">
-        <v>0.7601106697581713</v>
+        <v>0.7603531740144708</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.00920014402188</v>
+        <v>1.009232939041135</v>
       </c>
       <c r="J21">
-        <v>0.85506755863907</v>
+        <v>0.8552592234868942</v>
       </c>
       <c r="K21">
-        <v>0.8609002427919289</v>
+        <v>0.8610812644230696</v>
       </c>
       <c r="L21">
-        <v>0.8686122895645858</v>
+        <v>0.8687825729966648</v>
       </c>
       <c r="M21">
-        <v>0.7817030579446267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7819358674802716</v>
+      </c>
+      <c r="N21">
+        <v>0.9047850280393839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7895146222306344</v>
+        <v>0.7897885546492094</v>
       </c>
       <c r="D22">
-        <v>0.8199188093955283</v>
+        <v>0.8201633261836365</v>
       </c>
       <c r="E22">
-        <v>0.8290848566061314</v>
+        <v>0.8293146427527465</v>
       </c>
       <c r="F22">
-        <v>0.7259917093689301</v>
+        <v>0.7263246432609616</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003661174643862</v>
+        <v>1.003705303835191</v>
       </c>
       <c r="J22">
-        <v>0.8333791086845118</v>
+        <v>0.83362895064513</v>
       </c>
       <c r="K22">
-        <v>0.8401601183702484</v>
+        <v>0.8403963467262507</v>
       </c>
       <c r="L22">
-        <v>0.8490201035916222</v>
+        <v>0.8492423376938395</v>
       </c>
       <c r="M22">
-        <v>0.7500197148488401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7503367180749102</v>
+      </c>
+      <c r="N22">
+        <v>0.8901806017207953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8038328154617195</v>
+        <v>0.8040666600914288</v>
       </c>
       <c r="D23">
-        <v>0.8323369704298769</v>
+        <v>0.8325466642470553</v>
       </c>
       <c r="E23">
-        <v>0.8408190352954844</v>
+        <v>0.8410161197119179</v>
       </c>
       <c r="F23">
-        <v>0.7451716768123993</v>
+        <v>0.7454494703677857</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006743749325194</v>
+        <v>1.006781029910622</v>
       </c>
       <c r="J23">
-        <v>0.8455033156578781</v>
+        <v>0.8457181935889447</v>
       </c>
       <c r="K23">
-        <v>0.8517514790149707</v>
+        <v>0.8519545222350672</v>
       </c>
       <c r="L23">
-        <v>0.8599681789868259</v>
+        <v>0.86015918531067</v>
       </c>
       <c r="M23">
-        <v>0.7678182386732134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7680840089047943</v>
+      </c>
+      <c r="N23">
+        <v>0.8983421120189911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8475719764432154</v>
+        <v>0.8477202823748219</v>
       </c>
       <c r="D24">
-        <v>0.8704306740066241</v>
+        <v>0.8705652951273536</v>
       </c>
       <c r="E24">
-        <v>0.8768686850537333</v>
+        <v>0.8769952397253913</v>
       </c>
       <c r="F24">
-        <v>0.8022783532782933</v>
+        <v>0.8024453256400199</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016334659911765</v>
+        <v>1.01635756650283</v>
       </c>
       <c r="J24">
-        <v>0.8825283065937863</v>
+        <v>0.8826674135885337</v>
       </c>
       <c r="K24">
-        <v>0.8871920711999662</v>
+        <v>0.8873232798776339</v>
       </c>
       <c r="L24">
-        <v>0.893468469279565</v>
+        <v>0.893591879106585</v>
       </c>
       <c r="M24">
-        <v>0.8209716716764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8211333547217783</v>
+      </c>
+      <c r="N24">
+        <v>0.9233002813883858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8852598106359781</v>
+        <v>0.8853586194044326</v>
       </c>
       <c r="D25">
-        <v>0.9034251447640115</v>
+        <v>0.9035156175168478</v>
       </c>
       <c r="E25">
-        <v>0.9081555641681373</v>
+        <v>0.9082406243160754</v>
       </c>
       <c r="F25">
-        <v>0.8502662852910455</v>
+        <v>0.8503739054288415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024651506892008</v>
+        <v>1.024666382105238</v>
       </c>
       <c r="J25">
-        <v>0.9143786152250905</v>
+        <v>0.9144727279994815</v>
       </c>
       <c r="K25">
-        <v>0.9177337631966621</v>
+        <v>0.917822408340088</v>
       </c>
       <c r="L25">
-        <v>0.9223692668962106</v>
+        <v>0.9224526322124582</v>
       </c>
       <c r="M25">
-        <v>0.8657390549679499</v>
+        <v>0.8658441209694409</v>
+      </c>
+      <c r="N25">
+        <v>0.944794755993502</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9099031178379903</v>
+        <v>0.9475702435365151</v>
       </c>
       <c r="D2">
-        <v>0.9250770181789622</v>
+        <v>0.9565416480978284</v>
       </c>
       <c r="E2">
-        <v>0.9287173766511244</v>
+        <v>0.9666885161886718</v>
       </c>
       <c r="F2">
-        <v>0.8812494728563329</v>
+        <v>0.9736980174325861</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030007708000877</v>
+        <v>1.038475843020016</v>
       </c>
       <c r="J2">
-        <v>0.935158490166793</v>
+        <v>0.9714407839752924</v>
       </c>
       <c r="K2">
-        <v>0.9376892131546595</v>
+        <v>0.9686415705748633</v>
       </c>
       <c r="L2">
-        <v>0.9412680136202574</v>
+        <v>0.9786323036984136</v>
       </c>
       <c r="M2">
-        <v>0.8946550843672439</v>
+        <v>0.9855363635018837</v>
       </c>
       <c r="N2">
-        <v>0.9587765613367986</v>
+        <v>0.9728203413143528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9256464499378199</v>
+        <v>0.9696019974819167</v>
       </c>
       <c r="D3">
-        <v>0.938934493915084</v>
+        <v>0.9776698373078742</v>
       </c>
       <c r="E3">
-        <v>0.9418909837956693</v>
+        <v>0.9859564824061988</v>
       </c>
       <c r="F3">
-        <v>0.9009498816779563</v>
+        <v>0.9932712630189333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033361369141157</v>
+        <v>1.043259104005004</v>
       </c>
       <c r="J3">
-        <v>0.9483919263691193</v>
+        <v>0.990957099850894</v>
       </c>
       <c r="K3">
-        <v>0.9504133215039796</v>
+        <v>0.9885966413671402</v>
       </c>
       <c r="L3">
-        <v>0.9533256434715166</v>
+        <v>0.9967722632385502</v>
       </c>
       <c r="M3">
-        <v>0.9130293804198021</v>
+        <v>1.003990969486213</v>
       </c>
       <c r="N3">
-        <v>0.9677208807719301</v>
+        <v>0.9923643725970507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9350865314278852</v>
+        <v>0.982668258076257</v>
       </c>
       <c r="D4">
-        <v>0.9472533548924551</v>
+        <v>0.9902117480730087</v>
       </c>
       <c r="E4">
-        <v>0.9498044548072049</v>
+        <v>0.9973957720348169</v>
       </c>
       <c r="F4">
-        <v>0.9127355711241466</v>
+        <v>1.004894868817569</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035332960858276</v>
+        <v>1.046070001673508</v>
       </c>
       <c r="J4">
-        <v>0.9563102706521359</v>
+        <v>1.002525948127955</v>
       </c>
       <c r="K4">
-        <v>0.9580330264200357</v>
+        <v>1.00042976211605</v>
       </c>
       <c r="L4">
-        <v>0.9605489851364842</v>
+        <v>1.007525729746624</v>
       </c>
       <c r="M4">
-        <v>0.9240153193713289</v>
+        <v>1.014934573903684</v>
       </c>
       <c r="N4">
-        <v>0.973072315340233</v>
+        <v>1.00394964996563</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9388999585390062</v>
+        <v>0.9879217199917533</v>
       </c>
       <c r="D5">
-        <v>0.950615797481551</v>
+        <v>0.9952566444973204</v>
       </c>
       <c r="E5">
-        <v>0.9530041686784237</v>
+        <v>1.001997262481525</v>
       </c>
       <c r="F5">
-        <v>0.9174922038152192</v>
+        <v>1.009570983135948</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036119246379379</v>
+        <v>1.04719328515376</v>
       </c>
       <c r="J5">
-        <v>0.9595048697313027</v>
+        <v>1.00717558297185</v>
       </c>
       <c r="K5">
-        <v>0.9611085455613614</v>
+        <v>1.005186609908409</v>
       </c>
       <c r="L5">
-        <v>0.9634651323170824</v>
+        <v>1.011847645223115</v>
       </c>
       <c r="M5">
-        <v>0.9284473938409638</v>
+        <v>1.019333513065346</v>
       </c>
       <c r="N5">
-        <v>0.9752311622738858</v>
+        <v>1.008605887824324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9395317358582911</v>
+        <v>0.9887908344393397</v>
       </c>
       <c r="D6">
-        <v>0.9511729649874205</v>
+        <v>0.9960913751746245</v>
       </c>
       <c r="E6">
-        <v>0.9535344352705639</v>
+        <v>1.002758627235736</v>
       </c>
       <c r="F6">
-        <v>0.9182800420098407</v>
+        <v>1.010344717309237</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036248894029961</v>
+        <v>1.047378695413602</v>
       </c>
       <c r="J6">
-        <v>0.9600338804367827</v>
+        <v>1.007944687520371</v>
       </c>
       <c r="K6">
-        <v>0.9616179183318081</v>
+        <v>1.005973507482033</v>
       </c>
       <c r="L6">
-        <v>0.9639481444068763</v>
+        <v>1.012562537521526</v>
       </c>
       <c r="M6">
-        <v>0.9291813645937115</v>
+        <v>1.020061175144432</v>
       </c>
       <c r="N6">
-        <v>0.9755886474505665</v>
+        <v>1.009376084589522</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9351380692249875</v>
+        <v>0.9827393460354673</v>
       </c>
       <c r="D7">
-        <v>0.947298790368252</v>
+        <v>0.9902800053603661</v>
       </c>
       <c r="E7">
-        <v>0.9498476870128902</v>
+        <v>0.9974580299015496</v>
       </c>
       <c r="F7">
-        <v>0.9127998709573042</v>
+        <v>1.004958134708221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035343628810707</v>
+        <v>1.046085229807137</v>
       </c>
       <c r="J7">
-        <v>0.956353461594352</v>
+        <v>1.00258887289144</v>
       </c>
       <c r="K7">
-        <v>0.9580746018699793</v>
+        <v>1.000494133832955</v>
       </c>
       <c r="L7">
-        <v>0.9605884037836069</v>
+        <v>1.007584219576174</v>
       </c>
       <c r="M7">
-        <v>0.9240752392509384</v>
+        <v>1.014994104000628</v>
       </c>
       <c r="N7">
-        <v>0.9731015035707865</v>
+        <v>1.004012664089496</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9153944802590886</v>
+        <v>0.9552941581625788</v>
       </c>
       <c r="D8">
-        <v>0.9299082438952662</v>
+        <v>0.9639458848084319</v>
       </c>
       <c r="E8">
-        <v>0.9333089842470795</v>
+        <v>0.9734402874785449</v>
       </c>
       <c r="F8">
-        <v>0.8881286034546902</v>
+        <v>0.980555901227802</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031185547838513</v>
+        <v>1.040157958845032</v>
       </c>
       <c r="J8">
-        <v>0.9397779720270985</v>
+        <v>0.9782837379661685</v>
       </c>
       <c r="K8">
-        <v>0.9421295186748658</v>
+        <v>0.9756374414187703</v>
       </c>
       <c r="L8">
-        <v>0.9454751047872531</v>
+        <v>0.984992465276896</v>
       </c>
       <c r="M8">
-        <v>0.901072368269261</v>
+        <v>0.992005859956535</v>
       </c>
       <c r="N8">
-        <v>0.9618988917852239</v>
+        <v>0.9796730130847937</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8733739318144921</v>
+        <v>0.8946420587964558</v>
       </c>
       <c r="D9">
-        <v>0.8930080192338073</v>
+        <v>0.9058994053944388</v>
       </c>
       <c r="E9">
-        <v>0.8982705145908565</v>
+        <v>0.9205381324034739</v>
       </c>
       <c r="F9">
-        <v>0.8352022811237627</v>
+        <v>0.9268562499082788</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022028157933882</v>
+        <v>1.026867763068788</v>
       </c>
       <c r="J9">
-        <v>0.9043540862086547</v>
+        <v>0.9245550337976797</v>
       </c>
       <c r="K9">
-        <v>0.908113491370517</v>
+        <v>0.9207290805407184</v>
       </c>
       <c r="L9">
-        <v>0.9132621335435113</v>
+        <v>0.93506695282765</v>
       </c>
       <c r="M9">
-        <v>0.8516866298803472</v>
+        <v>0.9412590766146635</v>
       </c>
       <c r="N9">
-        <v>0.9379557656411096</v>
+        <v>0.925868007993617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8370149764680589</v>
+        <v>0.8370076990254095</v>
       </c>
       <c r="D10">
-        <v>0.8612210202005226</v>
+        <v>0.8509827440733213</v>
       </c>
       <c r="E10">
-        <v>0.8681449246429966</v>
+        <v>0.8705902485948874</v>
       </c>
       <c r="F10">
-        <v>0.7886364337099929</v>
+        <v>0.8762538779900806</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013993492920787</v>
+        <v>1.014240008007458</v>
       </c>
       <c r="J10">
-        <v>0.8736097871133733</v>
+        <v>0.8736029932488355</v>
       </c>
       <c r="K10">
-        <v>0.8786470582078255</v>
+        <v>0.8686883258694955</v>
       </c>
       <c r="L10">
-        <v>0.885386979797117</v>
+        <v>0.8877682736923549</v>
       </c>
       <c r="M10">
-        <v>0.8082639977903935</v>
+        <v>0.8932854583798266</v>
       </c>
       <c r="N10">
-        <v>0.9171805246872746</v>
+        <v>0.8748436097029126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8176162949038602</v>
+        <v>0.8016299899248022</v>
       </c>
       <c r="D11">
-        <v>0.8443225726303319</v>
+        <v>0.8174212563466642</v>
       </c>
       <c r="E11">
-        <v>0.8521517808777991</v>
+        <v>0.8401423494944941</v>
       </c>
       <c r="F11">
-        <v>0.7633511849352774</v>
+        <v>0.84547255261259</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009731338936936</v>
+        <v>1.006584142718358</v>
       </c>
       <c r="J11">
-        <v>0.8571899834312843</v>
+        <v>0.8424365801496947</v>
       </c>
       <c r="K11">
-        <v>0.8629287061851225</v>
+        <v>0.8368624214007629</v>
       </c>
       <c r="L11">
-        <v>0.8705284481153821</v>
+        <v>0.8588734128755373</v>
       </c>
       <c r="M11">
-        <v>0.7847242821170107</v>
+        <v>0.8640446155469284</v>
       </c>
       <c r="N11">
-        <v>0.9060890098735779</v>
+        <v>0.8436329367223335</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8095473553337751</v>
+        <v>0.7848917240882436</v>
       </c>
       <c r="D12">
-        <v>0.8373071075589378</v>
+        <v>0.8015889330940523</v>
       </c>
       <c r="E12">
-        <v>0.8455167972944949</v>
+        <v>0.8258050809932337</v>
       </c>
       <c r="F12">
-        <v>0.7527171566942985</v>
+        <v>0.8309993431437833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007971138990408</v>
+        <v>1.003001816283553</v>
       </c>
       <c r="J12">
-        <v>0.8503585734520522</v>
+        <v>0.827731495303705</v>
       </c>
       <c r="K12">
-        <v>0.8563928767195337</v>
+        <v>0.8218466352834223</v>
       </c>
       <c r="L12">
-        <v>0.8643524246080533</v>
+        <v>0.8452529114994681</v>
       </c>
       <c r="M12">
-        <v>0.7748366249150352</v>
+        <v>0.8502819517116147</v>
       </c>
       <c r="N12">
-        <v>0.9014755142316896</v>
+        <v>0.8289069689691659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8113257887330034</v>
+        <v>0.7887330361332877</v>
       </c>
       <c r="D13">
-        <v>0.8388526483197051</v>
+        <v>0.8052194754335082</v>
       </c>
       <c r="E13">
-        <v>0.8469782784336557</v>
+        <v>0.8290911383685285</v>
       </c>
       <c r="F13">
-        <v>0.7550674767617838</v>
+        <v>0.8343152608276514</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008358310849751</v>
+        <v>1.003821339915605</v>
       </c>
       <c r="J13">
-        <v>0.8518642957565992</v>
+        <v>0.831103587914961</v>
       </c>
       <c r="K13">
-        <v>0.857833261860643</v>
+        <v>0.8252899782618927</v>
       </c>
       <c r="L13">
-        <v>0.8657133979427396</v>
+        <v>0.8483754815212081</v>
       </c>
       <c r="M13">
-        <v>0.7770212662760414</v>
+        <v>0.8534358344633918</v>
       </c>
       <c r="N13">
-        <v>0.9024923217753381</v>
+        <v>0.8322838503387141</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8169698446431263</v>
+        <v>0.8003476510514456</v>
       </c>
       <c r="D14">
-        <v>0.843760223365044</v>
+        <v>0.816207199421391</v>
       </c>
       <c r="E14">
-        <v>0.8516198288004508</v>
+        <v>0.83904229162022</v>
       </c>
       <c r="F14">
-        <v>0.7625019654027378</v>
+        <v>0.8443615548892986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009589995954296</v>
+        <v>1.006308689014564</v>
       </c>
       <c r="J14">
-        <v>0.8566427016170174</v>
+        <v>0.8413089883967422</v>
       </c>
       <c r="K14">
-        <v>0.8624050234915855</v>
+        <v>0.8357110031017801</v>
       </c>
       <c r="L14">
-        <v>0.8700335449225742</v>
+        <v>0.8578286708989447</v>
       </c>
       <c r="M14">
-        <v>0.783934369808063</v>
+        <v>0.8629884660416818</v>
       </c>
       <c r="N14">
-        <v>0.9057193853812964</v>
+        <v>0.8425037436597554</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8203185588265567</v>
+        <v>0.8068993907385785</v>
       </c>
       <c r="D15">
-        <v>0.8466738381449247</v>
+        <v>0.8224119593268384</v>
       </c>
       <c r="E15">
-        <v>0.8543761417559435</v>
+        <v>0.8446655013783669</v>
       </c>
       <c r="F15">
-        <v>0.7668961251608511</v>
+        <v>0.8500415419345193</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010322734911281</v>
+        <v>1.007717691939662</v>
       </c>
       <c r="J15">
-        <v>0.8594776546231431</v>
+        <v>0.8470717654666116</v>
       </c>
       <c r="K15">
-        <v>0.8651178839076352</v>
+        <v>0.84159556245225</v>
       </c>
       <c r="L15">
-        <v>0.8725974110447624</v>
+        <v>0.8631685523902761</v>
       </c>
       <c r="M15">
-        <v>0.7880221785564228</v>
+        <v>0.8683875015505856</v>
       </c>
       <c r="N15">
-        <v>0.9076341089646706</v>
+        <v>0.8482747045340636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8382042845683514</v>
+        <v>0.8390305819317632</v>
       </c>
       <c r="D16">
-        <v>0.8622584827374277</v>
+        <v>0.8529054800618876</v>
       </c>
       <c r="E16">
-        <v>0.8691273133360966</v>
+        <v>0.8723366282320393</v>
       </c>
       <c r="F16">
-        <v>0.7901752031242621</v>
+        <v>0.8780210516298007</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014255834775996</v>
+        <v>1.014680638476106</v>
       </c>
       <c r="J16">
-        <v>0.8746162093781994</v>
+        <v>0.8753880936316695</v>
       </c>
       <c r="K16">
-        <v>0.8796109044765975</v>
+        <v>0.870511290491351</v>
       </c>
       <c r="L16">
-        <v>0.8862983519243384</v>
+        <v>0.8894242446140189</v>
       </c>
       <c r="M16">
-        <v>0.8096976566726738</v>
+        <v>0.8949629302545998</v>
       </c>
       <c r="N16">
-        <v>0.9178604671392764</v>
+        <v>0.8766312451330439</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8482934183598549</v>
+        <v>0.8557251719102801</v>
       </c>
       <c r="D17">
-        <v>0.8710659266534314</v>
+        <v>0.8687875979856926</v>
       </c>
       <c r="E17">
-        <v>0.8774695384180807</v>
+        <v>0.8867693466676867</v>
       </c>
       <c r="F17">
-        <v>0.8031820617561942</v>
+        <v>0.8926318751062167</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016484265706212</v>
+        <v>1.018326361914057</v>
       </c>
       <c r="J17">
-        <v>0.8831522339892655</v>
+        <v>0.8901307248351933</v>
       </c>
       <c r="K17">
-        <v>0.8877877984263924</v>
+        <v>0.8855672302183912</v>
       </c>
       <c r="L17">
-        <v>0.8940312288205082</v>
+        <v>0.9031039404742751</v>
       </c>
       <c r="M17">
-        <v>0.821820182582091</v>
+        <v>0.9088265676819729</v>
       </c>
       <c r="N17">
-        <v>0.923627872402469</v>
+        <v>0.8913948125638804</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8538535889287906</v>
+        <v>0.8646252849096329</v>
       </c>
       <c r="D18">
-        <v>0.8759245774122215</v>
+        <v>0.87726436355407</v>
       </c>
       <c r="E18">
-        <v>0.8820733196223554</v>
+        <v>0.8944775091245413</v>
       </c>
       <c r="F18">
-        <v>0.8103167793758993</v>
+        <v>0.9004394893528248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017713787230462</v>
+        <v>1.020275660269258</v>
       </c>
       <c r="J18">
-        <v>0.887854998059371</v>
+        <v>0.8979970855243409</v>
       </c>
       <c r="K18">
-        <v>0.8922942405554366</v>
+        <v>0.8936012905077891</v>
       </c>
       <c r="L18">
-        <v>0.8982938447984252</v>
+        <v>0.9104055115719176</v>
       </c>
       <c r="M18">
-        <v>0.8284725693175563</v>
+        <v>0.9162307190844299</v>
       </c>
       <c r="N18">
-        <v>0.9268056231071712</v>
+        <v>0.8992723443874909</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8557002989612429</v>
+        <v>0.86754155353906</v>
       </c>
       <c r="D19">
-        <v>0.8775390321836848</v>
+        <v>0.8800433317685543</v>
       </c>
       <c r="E19">
-        <v>0.8836033621451689</v>
+        <v>0.8970052021004313</v>
       </c>
       <c r="F19">
-        <v>0.8126815613324321</v>
+        <v>0.9030004143367274</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018122236658004</v>
+        <v>1.020915076886267</v>
       </c>
       <c r="J19">
-        <v>0.8894166662262467</v>
+        <v>0.9005755517829946</v>
       </c>
       <c r="K19">
-        <v>0.8937909602179969</v>
+        <v>0.8962348195976129</v>
       </c>
       <c r="L19">
-        <v>0.8997097210118946</v>
+        <v>0.9127991789200917</v>
       </c>
       <c r="M19">
-        <v>0.8306778526338812</v>
+        <v>0.9186586483711732</v>
       </c>
       <c r="N19">
-        <v>0.9278609166497266</v>
+        <v>0.901854472363986</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8472460269865384</v>
+        <v>0.8540268603731704</v>
       </c>
       <c r="D20">
-        <v>0.8701510627731399</v>
+        <v>0.867170824804598</v>
       </c>
       <c r="E20">
-        <v>0.8766028057631775</v>
+        <v>0.8852995474668478</v>
       </c>
       <c r="F20">
-        <v>0.8018355069120606</v>
+        <v>0.8911434443656195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016252733470773</v>
+        <v>1.017954804756445</v>
       </c>
       <c r="J20">
-        <v>0.8822662284305156</v>
+        <v>0.8886301837140242</v>
       </c>
       <c r="K20">
-        <v>0.8869389031259184</v>
+        <v>0.8840347449937618</v>
       </c>
       <c r="L20">
-        <v>0.8932283339189364</v>
+        <v>0.9017113146395619</v>
       </c>
       <c r="M20">
-        <v>0.8205648619244256</v>
+        <v>0.9074147153060701</v>
       </c>
       <c r="N20">
-        <v>0.9230292040600035</v>
+        <v>0.889892140502205</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8153357012179988</v>
+        <v>0.7970652988223654</v>
       </c>
       <c r="D21">
-        <v>0.8423389072086871</v>
+        <v>0.8131004580593783</v>
       </c>
       <c r="E21">
-        <v>0.8502754190273115</v>
+        <v>0.8362277459583611</v>
       </c>
       <c r="F21">
-        <v>0.7603531740144708</v>
+        <v>0.8415193963464297</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009232939041135</v>
+        <v>1.005604358055887</v>
       </c>
       <c r="J21">
-        <v>0.8552592234868942</v>
+        <v>0.8384234813907068</v>
       </c>
       <c r="K21">
-        <v>0.8610812644230696</v>
+        <v>0.8327645274770684</v>
       </c>
       <c r="L21">
-        <v>0.8687825729966648</v>
+        <v>0.8551554090805912</v>
       </c>
       <c r="M21">
-        <v>0.7819358674802716</v>
+        <v>0.8602863881704873</v>
       </c>
       <c r="N21">
-        <v>0.9047850280393839</v>
+        <v>0.8396141389027992</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7897885546492094</v>
+        <v>0.7289836733594409</v>
       </c>
       <c r="D22">
-        <v>0.8201633261836365</v>
+        <v>0.7489671796449853</v>
       </c>
       <c r="E22">
-        <v>0.8293146427527465</v>
+        <v>0.7783052569758618</v>
       </c>
       <c r="F22">
-        <v>0.7263246432609616</v>
+        <v>0.7831659127986804</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003705303835191</v>
+        <v>0.9912798411056899</v>
       </c>
       <c r="J22">
-        <v>0.83362895064513</v>
+        <v>0.7788633416792278</v>
       </c>
       <c r="K22">
-        <v>0.8403963467262507</v>
+        <v>0.7719431658620933</v>
       </c>
       <c r="L22">
-        <v>0.8492423376938395</v>
+        <v>0.8000649220999208</v>
       </c>
       <c r="M22">
-        <v>0.7503367180749102</v>
+        <v>0.8047364562541445</v>
       </c>
       <c r="N22">
-        <v>0.8901806017207953</v>
+        <v>0.7799694169612863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8040666600914288</v>
+        <v>0.772333179272935</v>
       </c>
       <c r="D23">
-        <v>0.8325466642470553</v>
+        <v>0.7897319597864476</v>
       </c>
       <c r="E23">
-        <v>0.8410161197119179</v>
+        <v>0.8150804450937171</v>
       </c>
       <c r="F23">
-        <v>0.7454494703677857</v>
+        <v>0.8201829027583497</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006781029910622</v>
+        <v>1.000334091191665</v>
       </c>
       <c r="J23">
-        <v>0.8457181935889447</v>
+        <v>0.8167186900238846</v>
       </c>
       <c r="K23">
-        <v>0.8519545222350672</v>
+        <v>0.8106010598172619</v>
       </c>
       <c r="L23">
-        <v>0.86015918531067</v>
+        <v>0.8350586115496452</v>
       </c>
       <c r="M23">
-        <v>0.7680840089047943</v>
+        <v>0.8399909714573636</v>
       </c>
       <c r="N23">
-        <v>0.8983421120189911</v>
+        <v>0.8178785242426617</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8477202823748219</v>
+        <v>0.8547967559925714</v>
       </c>
       <c r="D24">
-        <v>0.8705652951273536</v>
+        <v>0.8679037261702587</v>
       </c>
       <c r="E24">
-        <v>0.8769952397253913</v>
+        <v>0.885965808462254</v>
       </c>
       <c r="F24">
-        <v>0.8024453256400199</v>
+        <v>0.8918181376098634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01635756650283</v>
+        <v>1.01812322544341</v>
       </c>
       <c r="J24">
-        <v>0.8826674135885337</v>
+        <v>0.8893104029638962</v>
       </c>
       <c r="K24">
-        <v>0.8873232798776339</v>
+        <v>0.884729443318881</v>
       </c>
       <c r="L24">
-        <v>0.893591879106585</v>
+        <v>0.9023426068417643</v>
       </c>
       <c r="M24">
-        <v>0.8211333547217783</v>
+        <v>0.9080547094265485</v>
       </c>
       <c r="N24">
-        <v>0.9233002813883858</v>
+        <v>0.8905733257414339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8853586194044326</v>
+        <v>0.9123693184117292</v>
       </c>
       <c r="D25">
-        <v>0.9035156175168478</v>
+        <v>0.9228412166471551</v>
       </c>
       <c r="E25">
-        <v>0.9082406243160754</v>
+        <v>0.9359701394057671</v>
       </c>
       <c r="F25">
-        <v>0.8503739054288415</v>
+        <v>0.9425118810064466</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024666382105238</v>
+        <v>1.030764535869381</v>
       </c>
       <c r="J25">
-        <v>0.9144727279994815</v>
+        <v>0.9402540305828307</v>
       </c>
       <c r="K25">
-        <v>0.917822408340088</v>
+        <v>0.9367683634578825</v>
       </c>
       <c r="L25">
-        <v>0.9224526322124582</v>
+        <v>0.9496510249657243</v>
       </c>
       <c r="M25">
-        <v>0.8658441209694409</v>
+        <v>0.9560733919320158</v>
       </c>
       <c r="N25">
-        <v>0.944794755993502</v>
+        <v>0.9415892991549031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9475702435365151</v>
+        <v>0.8649913471622079</v>
       </c>
       <c r="D2">
-        <v>0.9565416480978284</v>
+        <v>0.8822234255485567</v>
       </c>
       <c r="E2">
-        <v>0.9666885161886718</v>
+        <v>0.8894479769136008</v>
       </c>
       <c r="F2">
-        <v>0.9736980174325861</v>
+        <v>0.8691801706420044</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038475843020016</v>
+        <v>1.021640491451858</v>
       </c>
       <c r="J2">
-        <v>0.9714407839752924</v>
+        <v>0.8921253946744827</v>
       </c>
       <c r="K2">
-        <v>0.9686415705748633</v>
+        <v>0.8956102838552493</v>
       </c>
       <c r="L2">
-        <v>0.9786323036984136</v>
+        <v>0.9026974032264548</v>
       </c>
       <c r="M2">
-        <v>0.9855363635018837</v>
+        <v>0.882822761005272</v>
       </c>
       <c r="N2">
-        <v>0.9728203413143528</v>
+        <v>0.8933923150631334</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9696019974819167</v>
+        <v>0.9030954810410158</v>
       </c>
       <c r="D3">
-        <v>0.9776698373078742</v>
+        <v>0.918274361475356</v>
       </c>
       <c r="E3">
-        <v>0.9859564824061988</v>
+        <v>0.9218705990114489</v>
       </c>
       <c r="F3">
-        <v>0.9932712630189333</v>
+        <v>0.9098022635421169</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043259104005004</v>
+        <v>1.029145822989186</v>
       </c>
       <c r="J3">
-        <v>0.990957099850894</v>
+        <v>0.9266282202580518</v>
       </c>
       <c r="K3">
-        <v>0.9885966413671402</v>
+        <v>0.9300720031521332</v>
       </c>
       <c r="L3">
-        <v>0.9967722632385502</v>
+        <v>0.9336114315689958</v>
       </c>
       <c r="M3">
-        <v>1.003990969486213</v>
+        <v>0.9217360175672424</v>
       </c>
       <c r="N3">
-        <v>0.9923643725970507</v>
+        <v>0.9279441386165604</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.982668258076257</v>
+        <v>0.9231667644870413</v>
       </c>
       <c r="D4">
-        <v>0.9902117480730087</v>
+        <v>0.9372430573120285</v>
       </c>
       <c r="E4">
-        <v>0.9973957720348169</v>
+        <v>0.9389854356422707</v>
       </c>
       <c r="F4">
-        <v>1.004894868817569</v>
+        <v>0.9310561521355257</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046070001673508</v>
+        <v>1.03305671274794</v>
       </c>
       <c r="J4">
-        <v>1.002525948127955</v>
+        <v>0.9447633189888722</v>
       </c>
       <c r="K4">
-        <v>1.00042976211605</v>
+        <v>0.948162956642815</v>
       </c>
       <c r="L4">
-        <v>1.007525729746624</v>
+        <v>0.9498806554817285</v>
       </c>
       <c r="M4">
-        <v>1.014934573903684</v>
+        <v>0.9420646299288638</v>
       </c>
       <c r="N4">
-        <v>1.00394964996563</v>
+        <v>0.9461049912677039</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9879217199917533</v>
+        <v>0.9308698458187847</v>
       </c>
       <c r="D5">
-        <v>0.9952566444973204</v>
+        <v>0.9445180598282437</v>
       </c>
       <c r="E5">
-        <v>1.001997262481525</v>
+        <v>0.9455600769295333</v>
       </c>
       <c r="F5">
-        <v>1.009570983135948</v>
+        <v>0.9391840631044102</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04719328515376</v>
+        <v>1.034544291037451</v>
       </c>
       <c r="J5">
-        <v>1.00717558297185</v>
+        <v>0.9517147790202821</v>
       </c>
       <c r="K5">
-        <v>1.005186609908409</v>
+        <v>0.9550928737424104</v>
       </c>
       <c r="L5">
-        <v>1.011847645223115</v>
+        <v>0.956120772648871</v>
       </c>
       <c r="M5">
-        <v>1.019333513065346</v>
+        <v>0.949831765068692</v>
       </c>
       <c r="N5">
-        <v>1.008605887824324</v>
+        <v>0.9530663231697022</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9887908344393397</v>
+        <v>0.9321266950373664</v>
       </c>
       <c r="D6">
-        <v>0.9960913751746245</v>
+        <v>0.9457047756220103</v>
       </c>
       <c r="E6">
-        <v>1.002758627235736</v>
+        <v>0.946633124509817</v>
       </c>
       <c r="F6">
-        <v>1.010344717309237</v>
+        <v>0.9405086230527108</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047378695413602</v>
+        <v>1.03478615461144</v>
       </c>
       <c r="J6">
-        <v>1.007944687520371</v>
+        <v>0.9528485062802482</v>
       </c>
       <c r="K6">
-        <v>1.005973507482033</v>
+        <v>0.9562228304909145</v>
       </c>
       <c r="L6">
-        <v>1.012562537521526</v>
+        <v>0.9571386939467827</v>
       </c>
       <c r="M6">
-        <v>1.020061175144432</v>
+        <v>0.951097134246939</v>
       </c>
       <c r="N6">
-        <v>1.009376084589522</v>
+        <v>0.9542016604524175</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9827393460354673</v>
+        <v>0.923272266159414</v>
       </c>
       <c r="D7">
-        <v>0.9902800053603661</v>
+        <v>0.9373427158077137</v>
       </c>
       <c r="E7">
-        <v>0.9974580299015496</v>
+        <v>0.9390754594052022</v>
       </c>
       <c r="F7">
-        <v>1.004958134708221</v>
+        <v>0.9311675847736153</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046085229807137</v>
+        <v>1.03307714396793</v>
       </c>
       <c r="J7">
-        <v>1.00258887289144</v>
+        <v>0.9448585601922685</v>
       </c>
       <c r="K7">
-        <v>1.000494133832955</v>
+        <v>0.9482579206737669</v>
       </c>
       <c r="L7">
-        <v>1.007584219576174</v>
+        <v>0.9499661359226126</v>
       </c>
       <c r="M7">
-        <v>1.014994104000628</v>
+        <v>0.9421711439430799</v>
       </c>
       <c r="N7">
-        <v>1.004012664089496</v>
+        <v>0.9462003677245331</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9552941581625788</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D8">
-        <v>0.9639458848084319</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E8">
-        <v>0.9734402874785449</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F8">
-        <v>0.980555901227802</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040157958845032</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J8">
-        <v>0.9782837379661685</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K8">
-        <v>0.9756374414187703</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L8">
-        <v>0.984992465276896</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M8">
-        <v>0.992005859956535</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N8">
-        <v>0.9796730130847937</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8946420587964558</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D9">
-        <v>0.9058994053944388</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E9">
-        <v>0.9205381324034739</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F9">
-        <v>0.9268562499082788</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026867763068788</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J9">
-        <v>0.9245550337976797</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K9">
-        <v>0.9207290805407184</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L9">
-        <v>0.93506695282765</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M9">
-        <v>0.9412590766146635</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N9">
-        <v>0.925868007993617</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8370076990254095</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D10">
-        <v>0.8509827440733213</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E10">
-        <v>0.8705902485948874</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F10">
-        <v>0.8762538779900806</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014240008007458</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J10">
-        <v>0.8736029932488355</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K10">
-        <v>0.8686883258694955</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L10">
-        <v>0.8877682736923549</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M10">
-        <v>0.8932854583798266</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N10">
-        <v>0.8748436097029126</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8016299899248022</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D11">
-        <v>0.8174212563466642</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E11">
-        <v>0.8401423494944941</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F11">
-        <v>0.84547255261259</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006584142718358</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J11">
-        <v>0.8424365801496947</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K11">
-        <v>0.8368624214007629</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L11">
-        <v>0.8588734128755373</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M11">
-        <v>0.8640446155469284</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N11">
-        <v>0.8436329367223335</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7848917240882436</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D12">
-        <v>0.8015889330940523</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E12">
-        <v>0.8258050809932337</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F12">
-        <v>0.8309993431437833</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.003001816283553</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J12">
-        <v>0.827731495303705</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K12">
-        <v>0.8218466352834223</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L12">
-        <v>0.8452529114994681</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M12">
-        <v>0.8502819517116147</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N12">
-        <v>0.8289069689691659</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7887330361332877</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D13">
-        <v>0.8052194754335082</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E13">
-        <v>0.8290911383685285</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F13">
-        <v>0.8343152608276514</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.003821339915605</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J13">
-        <v>0.831103587914961</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K13">
-        <v>0.8252899782618927</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L13">
-        <v>0.8483754815212081</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M13">
-        <v>0.8534358344633918</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N13">
-        <v>0.8322838503387141</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8003476510514456</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D14">
-        <v>0.816207199421391</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E14">
-        <v>0.83904229162022</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F14">
-        <v>0.8443615548892986</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006308689014564</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J14">
-        <v>0.8413089883967422</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K14">
-        <v>0.8357110031017801</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L14">
-        <v>0.8578286708989447</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M14">
-        <v>0.8629884660416818</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N14">
-        <v>0.8425037436597554</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8068993907385785</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D15">
-        <v>0.8224119593268384</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E15">
-        <v>0.8446655013783669</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F15">
-        <v>0.8500415419345193</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007717691939662</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J15">
-        <v>0.8470717654666116</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K15">
-        <v>0.84159556245225</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L15">
-        <v>0.8631685523902761</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M15">
-        <v>0.8683875015505856</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N15">
-        <v>0.8482747045340636</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8390305819317632</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D16">
-        <v>0.8529054800618876</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E16">
-        <v>0.8723366282320393</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F16">
-        <v>0.8780210516298007</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014680638476106</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J16">
-        <v>0.8753880936316695</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K16">
-        <v>0.870511290491351</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L16">
-        <v>0.8894242446140189</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M16">
-        <v>0.8949629302545998</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N16">
-        <v>0.8766312451330439</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8557251719102801</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D17">
-        <v>0.8687875979856926</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E17">
-        <v>0.8867693466676867</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F17">
-        <v>0.8926318751062167</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018326361914057</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J17">
-        <v>0.8901307248351933</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K17">
-        <v>0.8855672302183912</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L17">
-        <v>0.9031039404742751</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M17">
-        <v>0.9088265676819729</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N17">
-        <v>0.8913948125638804</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8646252849096329</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D18">
-        <v>0.87726436355407</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E18">
-        <v>0.8944775091245413</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F18">
-        <v>0.9004394893528248</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020275660269258</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J18">
-        <v>0.8979970855243409</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K18">
-        <v>0.8936012905077891</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L18">
-        <v>0.9104055115719176</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M18">
-        <v>0.9162307190844299</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N18">
-        <v>0.8992723443874909</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.86754155353906</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D19">
-        <v>0.8800433317685543</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E19">
-        <v>0.8970052021004313</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F19">
-        <v>0.9030004143367274</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020915076886267</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J19">
-        <v>0.9005755517829946</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K19">
-        <v>0.8962348195976129</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L19">
-        <v>0.9127991789200917</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M19">
-        <v>0.9186586483711732</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N19">
-        <v>0.901854472363986</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8540268603731704</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D20">
-        <v>0.867170824804598</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E20">
-        <v>0.8852995474668478</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F20">
-        <v>0.8911434443656195</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017954804756445</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J20">
-        <v>0.8886301837140242</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K20">
-        <v>0.8840347449937618</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L20">
-        <v>0.9017113146395619</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M20">
-        <v>0.9074147153060701</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N20">
-        <v>0.889892140502205</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7970652988223654</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D21">
-        <v>0.8131004580593783</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E21">
-        <v>0.8362277459583611</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F21">
-        <v>0.8415193963464297</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005604358055887</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J21">
-        <v>0.8384234813907068</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K21">
-        <v>0.8327645274770684</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L21">
-        <v>0.8551554090805912</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M21">
-        <v>0.8602863881704873</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N21">
-        <v>0.8396141389027992</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7289836733594409</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D22">
-        <v>0.7489671796449853</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E22">
-        <v>0.7783052569758618</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F22">
-        <v>0.7831659127986804</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9912798411056899</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J22">
-        <v>0.7788633416792278</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K22">
-        <v>0.7719431658620933</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L22">
-        <v>0.8000649220999208</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M22">
-        <v>0.8047364562541445</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N22">
-        <v>0.7799694169612863</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.772333179272935</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D23">
-        <v>0.7897319597864476</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E23">
-        <v>0.8150804450937171</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F23">
-        <v>0.8201829027583497</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.000334091191665</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J23">
-        <v>0.8167186900238846</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K23">
-        <v>0.8106010598172619</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L23">
-        <v>0.8350586115496452</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M23">
-        <v>0.8399909714573636</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N23">
-        <v>0.8178785242426617</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8547967559925714</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D24">
-        <v>0.8679037261702587</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E24">
-        <v>0.885965808462254</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F24">
-        <v>0.8918181376098634</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01812322544341</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J24">
-        <v>0.8893104029638962</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K24">
-        <v>0.884729443318881</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L24">
-        <v>0.9023426068417643</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M24">
-        <v>0.9080547094265485</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N24">
-        <v>0.8905733257414339</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9123693184117292</v>
+        <v>0.8791387960139249</v>
       </c>
       <c r="D25">
-        <v>0.9228412166471551</v>
+        <v>0.8956136565957138</v>
       </c>
       <c r="E25">
-        <v>0.9359701394057671</v>
+        <v>0.9014749515112955</v>
       </c>
       <c r="F25">
-        <v>0.9425118810064466</v>
+        <v>0.8843017836447736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030764535869381</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J25">
-        <v>0.9402540305828307</v>
+        <v>0.9049458273397928</v>
       </c>
       <c r="K25">
-        <v>0.9367683634578825</v>
+        <v>0.9084215438284695</v>
       </c>
       <c r="L25">
-        <v>0.9496510249657243</v>
+        <v>0.9141784802492342</v>
       </c>
       <c r="M25">
-        <v>0.9560733919320158</v>
+        <v>0.8973161764236317</v>
       </c>
       <c r="N25">
-        <v>0.9415892991549031</v>
+        <v>0.9062309542133525</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8649913471622079</v>
+        <v>1.061580654564151</v>
       </c>
       <c r="D2">
-        <v>0.8822234255485567</v>
+        <v>1.065827896789079</v>
       </c>
       <c r="E2">
-        <v>0.8894479769136008</v>
+        <v>1.057131682040233</v>
       </c>
       <c r="F2">
-        <v>0.8691801706420044</v>
+        <v>1.069972722833207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.021640491451858</v>
+        <v>1.027727093623883</v>
       </c>
       <c r="J2">
-        <v>0.8921253946744827</v>
+        <v>1.066555599747767</v>
       </c>
       <c r="K2">
-        <v>0.8956102838552493</v>
+        <v>1.068540087318213</v>
       </c>
       <c r="L2">
-        <v>0.9026974032264548</v>
+        <v>1.059867491236546</v>
       </c>
       <c r="M2">
-        <v>0.882822761005272</v>
+        <v>1.072673802253232</v>
       </c>
       <c r="N2">
-        <v>0.8933923150631334</v>
+        <v>1.068070231035047</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9030954810410158</v>
+        <v>1.065040037956285</v>
       </c>
       <c r="D3">
-        <v>0.918274361475356</v>
+        <v>1.069068234466548</v>
       </c>
       <c r="E3">
-        <v>0.9218705990114489</v>
+        <v>1.060135155210381</v>
       </c>
       <c r="F3">
-        <v>0.9098022635421169</v>
+        <v>1.073408141163539</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029145822989186</v>
+        <v>1.028070710856076</v>
       </c>
       <c r="J3">
-        <v>0.9266282202580518</v>
+        <v>1.069657140357252</v>
       </c>
       <c r="K3">
-        <v>0.9300720031521332</v>
+        <v>1.071589856714869</v>
       </c>
       <c r="L3">
-        <v>0.9336114315689958</v>
+        <v>1.062679185340305</v>
       </c>
       <c r="M3">
-        <v>0.9217360175672424</v>
+        <v>1.07591902199196</v>
       </c>
       <c r="N3">
-        <v>0.9279441386165604</v>
+        <v>1.071176176187948</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9231667644870413</v>
+        <v>1.067248008602524</v>
       </c>
       <c r="D4">
-        <v>0.9372430573120285</v>
+        <v>1.071134168909404</v>
       </c>
       <c r="E4">
-        <v>0.9389854356422707</v>
+        <v>1.062052334200652</v>
       </c>
       <c r="F4">
-        <v>0.9310561521355257</v>
+        <v>1.075592677910512</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03305671274794</v>
+        <v>1.028281227693845</v>
       </c>
       <c r="J4">
-        <v>0.9447633189888722</v>
+        <v>1.07163410748539</v>
       </c>
       <c r="K4">
-        <v>0.948162956642815</v>
+        <v>1.073532413656401</v>
       </c>
       <c r="L4">
-        <v>0.9498806554817285</v>
+        <v>1.064472152701901</v>
       </c>
       <c r="M4">
-        <v>0.9420646299288638</v>
+        <v>1.077980474568658</v>
       </c>
       <c r="N4">
-        <v>0.9461049912677039</v>
+        <v>1.073155950836169</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9308698458187847</v>
+        <v>1.068169144848626</v>
       </c>
       <c r="D5">
-        <v>0.9445180598282437</v>
+        <v>1.071995513156468</v>
       </c>
       <c r="E5">
-        <v>0.9455600769295333</v>
+        <v>1.062852201119229</v>
       </c>
       <c r="F5">
-        <v>0.9391840631044102</v>
+        <v>1.076502083246614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034544291037451</v>
+        <v>1.02836692821246</v>
       </c>
       <c r="J5">
-        <v>0.9517147790202821</v>
+        <v>1.072458245337372</v>
       </c>
       <c r="K5">
-        <v>0.9550928737424104</v>
+        <v>1.07434186770134</v>
       </c>
       <c r="L5">
-        <v>0.956120772648871</v>
+        <v>1.065219767329366</v>
       </c>
       <c r="M5">
-        <v>0.949831765068692</v>
+        <v>1.078838124967922</v>
       </c>
       <c r="N5">
-        <v>0.9530663231697022</v>
+        <v>1.073981259058431</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9321266950373664</v>
+        <v>1.068323397383298</v>
       </c>
       <c r="D6">
-        <v>0.9457047756220103</v>
+        <v>1.072139721420079</v>
       </c>
       <c r="E6">
-        <v>0.946633124509817</v>
+        <v>1.062986148615462</v>
       </c>
       <c r="F6">
-        <v>0.9405086230527108</v>
+        <v>1.076654256415823</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03478615461144</v>
+        <v>1.02838115432016</v>
       </c>
       <c r="J6">
-        <v>0.9528485062802482</v>
+        <v>1.072596217761745</v>
       </c>
       <c r="K6">
-        <v>0.9562228304909145</v>
+        <v>1.074477361885809</v>
       </c>
       <c r="L6">
-        <v>0.9571386939467827</v>
+        <v>1.065344939300488</v>
       </c>
       <c r="M6">
-        <v>0.951097134246939</v>
+        <v>1.078981607441688</v>
       </c>
       <c r="N6">
-        <v>0.9542016604524175</v>
+        <v>1.074119427419472</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.923272266159414</v>
+        <v>1.067260344483711</v>
       </c>
       <c r="D7">
-        <v>0.9373427158077137</v>
+        <v>1.071145706172244</v>
       </c>
       <c r="E7">
-        <v>0.9390754594052022</v>
+        <v>1.062063045864166</v>
       </c>
       <c r="F7">
-        <v>0.9311675847736153</v>
+        <v>1.075604864403499</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03307714396793</v>
+        <v>1.028282383793984</v>
       </c>
       <c r="J7">
-        <v>0.9448585601922685</v>
+        <v>1.071645146834968</v>
       </c>
       <c r="K7">
-        <v>0.9482579206737669</v>
+        <v>1.073543257655601</v>
       </c>
       <c r="L7">
-        <v>0.9499661359226126</v>
+        <v>1.064482166307488</v>
       </c>
       <c r="M7">
-        <v>0.9421711439430799</v>
+        <v>1.077991969559775</v>
       </c>
       <c r="N7">
-        <v>0.9462003677245331</v>
+        <v>1.07316700586289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8791387960139249</v>
+        <v>1.062756205664002</v>
       </c>
       <c r="D8">
-        <v>0.8956136565957138</v>
+        <v>1.066929477155361</v>
       </c>
       <c r="E8">
-        <v>0.9014749515112955</v>
+        <v>1.058152265983583</v>
       </c>
       <c r="F8">
-        <v>0.8843017836447736</v>
+        <v>1.071141827687362</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024434133864051</v>
+        <v>1.027845688427606</v>
       </c>
       <c r="J8">
-        <v>0.9049458273397928</v>
+        <v>1.067610094292387</v>
       </c>
       <c r="K8">
-        <v>0.9084215438284695</v>
+        <v>1.06957727431475</v>
       </c>
       <c r="L8">
-        <v>0.9141784802492342</v>
+        <v>1.060823283544782</v>
       </c>
       <c r="M8">
-        <v>0.8973161764236317</v>
+        <v>1.073778626852897</v>
       </c>
       <c r="N8">
-        <v>0.9062309542133525</v>
+        <v>1.069126223082872</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8791387960139249</v>
+        <v>1.05457633822253</v>
       </c>
       <c r="D9">
-        <v>0.8956136565957138</v>
+        <v>1.059255038775264</v>
       </c>
       <c r="E9">
-        <v>0.9014749515112955</v>
+        <v>1.051051604810684</v>
       </c>
       <c r="F9">
-        <v>0.8843017836447736</v>
+        <v>1.062972773626579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024434133864051</v>
+        <v>1.026984124997332</v>
       </c>
       <c r="J9">
-        <v>0.9049458273397928</v>
+        <v>1.06026168115583</v>
       </c>
       <c r="K9">
-        <v>0.9084215438284695</v>
+        <v>1.062343576198544</v>
       </c>
       <c r="L9">
-        <v>0.9141784802492342</v>
+        <v>1.054165851622549</v>
       </c>
       <c r="M9">
-        <v>0.8973161764236317</v>
+        <v>1.066049802426094</v>
       </c>
       <c r="N9">
-        <v>0.9062309542133525</v>
+        <v>1.061767374356786</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8791387960139249</v>
+        <v>1.048945691897045</v>
       </c>
       <c r="D10">
-        <v>0.8956136565957138</v>
+        <v>1.053960614735169</v>
       </c>
       <c r="E10">
-        <v>0.9014749515112955</v>
+        <v>1.046165049848122</v>
       </c>
       <c r="F10">
-        <v>0.8843017836447736</v>
+        <v>1.057306531186098</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024434133864051</v>
+        <v>1.026345641756164</v>
       </c>
       <c r="J10">
-        <v>0.9049458273397928</v>
+        <v>1.055189612003984</v>
       </c>
       <c r="K10">
-        <v>0.9084215438284695</v>
+        <v>1.057343246050095</v>
       </c>
       <c r="L10">
-        <v>0.9141784802492342</v>
+        <v>1.049574718749255</v>
       </c>
       <c r="M10">
-        <v>0.8973161764236317</v>
+        <v>1.06067769226162</v>
       </c>
       <c r="N10">
-        <v>0.9062309542133525</v>
+        <v>1.05668810228497</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8791387960139249</v>
+        <v>1.046462152304471</v>
       </c>
       <c r="D11">
-        <v>0.8956136565957138</v>
+        <v>1.05162261630905</v>
       </c>
       <c r="E11">
-        <v>0.9014749515112955</v>
+        <v>1.044010026579713</v>
       </c>
       <c r="F11">
-        <v>0.8843017836447736</v>
+        <v>1.054797083036346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024434133864051</v>
+        <v>1.026053424529779</v>
       </c>
       <c r="J11">
-        <v>0.9049458273397928</v>
+        <v>1.052949190919478</v>
       </c>
       <c r="K11">
-        <v>0.9084215438284695</v>
+        <v>1.055132754292324</v>
       </c>
       <c r="L11">
-        <v>0.9141784802492342</v>
+        <v>1.047547687439034</v>
       </c>
       <c r="M11">
-        <v>0.8973161764236317</v>
+        <v>1.058295873417507</v>
       </c>
       <c r="N11">
-        <v>0.9062309542133525</v>
+        <v>1.054444499545544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8791387960139249</v>
+        <v>1.045532528053492</v>
       </c>
       <c r="D12">
-        <v>0.8956136565957138</v>
+        <v>1.05074705687994</v>
       </c>
       <c r="E12">
-        <v>0.9014749515112955</v>
+        <v>1.043203420550826</v>
       </c>
       <c r="F12">
-        <v>0.8843017836447736</v>
+        <v>1.05385622645859</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024434133864051</v>
+        <v>1.025942465822295</v>
       </c>
       <c r="J12">
-        <v>0.9049458273397928</v>
+        <v>1.052110080614742</v>
       </c>
       <c r="K12">
-        <v>0.9084215438284695</v>
+        <v>1.054304589554308</v>
       </c>
       <c r="L12">
-        <v>0.9141784802492342</v>
+        <v>1.046788641848603</v>
       </c>
       <c r="M12">
-        <v>0.8973161764236317</v>
+        <v>1.05740247446871</v>
       </c>
       <c r="N12">
-        <v>0.9062309542133525</v>
+        <v>1.053604197607928</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8791387960139249</v>
+        <v>1.045732263146218</v>
       </c>
       <c r="D13">
-        <v>0.8956136565957138</v>
+        <v>1.050935194503871</v>
       </c>
       <c r="E13">
-        <v>0.9014749515112955</v>
+        <v>1.043376722179731</v>
       </c>
       <c r="F13">
-        <v>0.8843017836447736</v>
+        <v>1.054058444261204</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024434133864051</v>
+        <v>1.025966377019747</v>
       </c>
       <c r="J13">
-        <v>0.9049458273397928</v>
+        <v>1.052290390357483</v>
       </c>
       <c r="K13">
-        <v>0.9084215438284695</v>
+        <v>1.0544825592172</v>
       </c>
       <c r="L13">
-        <v>0.9141784802492342</v>
+        <v>1.04695174063664</v>
       </c>
       <c r="M13">
-        <v>0.8973161764236317</v>
+        <v>1.057594509998905</v>
       </c>
       <c r="N13">
-        <v>0.9062309542133525</v>
+        <v>1.053784763411185</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8791387960139249</v>
+        <v>1.046385456464021</v>
       </c>
       <c r="D14">
-        <v>0.8956136565957138</v>
+        <v>1.051550389328819</v>
       </c>
       <c r="E14">
-        <v>0.9014749515112955</v>
+        <v>1.043943478956713</v>
       </c>
       <c r="F14">
-        <v>0.8843017836447736</v>
+        <v>1.054719491739061</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024434133864051</v>
+        <v>1.026044302239201</v>
       </c>
       <c r="J14">
-        <v>0.9049458273397928</v>
+        <v>1.052879972603673</v>
       </c>
       <c r="K14">
-        <v>0.9084215438284695</v>
+        <v>1.055064444246472</v>
       </c>
       <c r="L14">
-        <v>0.9141784802492342</v>
+        <v>1.047485070753219</v>
       </c>
       <c r="M14">
-        <v>0.8973161764236317</v>
+        <v>1.058222203893707</v>
       </c>
       <c r="N14">
-        <v>0.9062309542133525</v>
+        <v>1.054375182931792</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8791387960139249</v>
+        <v>1.046786956730169</v>
       </c>
       <c r="D15">
-        <v>0.8956136565957138</v>
+        <v>1.051928478387151</v>
       </c>
       <c r="E15">
-        <v>0.9014749515112955</v>
+        <v>1.04429185568088</v>
       </c>
       <c r="F15">
-        <v>0.8843017836447736</v>
+        <v>1.055125617043827</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024434133864051</v>
+        <v>1.026091992815471</v>
       </c>
       <c r="J15">
-        <v>0.9049458273397928</v>
+        <v>1.053242308315352</v>
       </c>
       <c r="K15">
-        <v>0.9084215438284695</v>
+        <v>1.055422014684583</v>
       </c>
       <c r="L15">
-        <v>0.9141784802492342</v>
+        <v>1.047812854898847</v>
       </c>
       <c r="M15">
-        <v>0.8973161764236317</v>
+        <v>1.058607785948017</v>
       </c>
       <c r="N15">
-        <v>0.9062309542133525</v>
+        <v>1.054738033201742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8791387960139249</v>
+        <v>1.04910953367824</v>
       </c>
       <c r="D16">
-        <v>0.8956136565957138</v>
+        <v>1.054114797416735</v>
       </c>
       <c r="E16">
-        <v>0.9014749515112955</v>
+        <v>1.046307225864391</v>
       </c>
       <c r="F16">
-        <v>0.8843017836447736</v>
+        <v>1.057471868637501</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024434133864051</v>
+        <v>1.026364699228755</v>
       </c>
       <c r="J16">
-        <v>0.9049458273397928</v>
+        <v>1.055337346933546</v>
       </c>
       <c r="K16">
-        <v>0.9084215438284695</v>
+        <v>1.057488970681316</v>
       </c>
       <c r="L16">
-        <v>0.9141784802492342</v>
+        <v>1.049708402530066</v>
       </c>
       <c r="M16">
-        <v>0.8973161764236317</v>
+        <v>1.060834565879851</v>
       </c>
       <c r="N16">
-        <v>0.9062309542133525</v>
+        <v>1.056836047015077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8791387960139249</v>
+        <v>1.05055405360241</v>
       </c>
       <c r="D17">
-        <v>0.8956136565957138</v>
+        <v>1.055473841964218</v>
       </c>
       <c r="E17">
-        <v>0.9014749515112955</v>
+        <v>1.047560764834458</v>
       </c>
       <c r="F17">
-        <v>0.8843017836447736</v>
+        <v>1.058928407358218</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024434133864051</v>
+        <v>1.026531509826261</v>
       </c>
       <c r="J17">
-        <v>0.9049458273397928</v>
+        <v>1.056639487478737</v>
       </c>
       <c r="K17">
-        <v>0.9084215438284695</v>
+        <v>1.058773191354055</v>
       </c>
       <c r="L17">
-        <v>0.9141784802492342</v>
+        <v>1.050886804631241</v>
       </c>
       <c r="M17">
-        <v>0.8973161764236317</v>
+        <v>1.062216241973179</v>
       </c>
       <c r="N17">
-        <v>0.9062309542133525</v>
+        <v>1.0581400367492</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8791387960139249</v>
+        <v>1.051392255249807</v>
       </c>
       <c r="D18">
-        <v>0.8956136565957138</v>
+        <v>1.056262182124983</v>
       </c>
       <c r="E18">
-        <v>0.9014749515112955</v>
+        <v>1.048288177261129</v>
       </c>
       <c r="F18">
-        <v>0.8843017836447736</v>
+        <v>1.059772609015885</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024434133864051</v>
+        <v>1.026627291553075</v>
       </c>
       <c r="J18">
-        <v>0.9049458273397928</v>
+        <v>1.057394760871275</v>
       </c>
       <c r="K18">
-        <v>0.9084215438284695</v>
+        <v>1.05951790304564</v>
       </c>
       <c r="L18">
-        <v>0.9141784802492342</v>
+        <v>1.051570397428649</v>
       </c>
       <c r="M18">
-        <v>0.8973161764236317</v>
+        <v>1.063016802684503</v>
       </c>
       <c r="N18">
-        <v>0.9062309542133525</v>
+        <v>1.058896382716586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8791387960139249</v>
+        <v>1.051677329297004</v>
       </c>
       <c r="D19">
-        <v>0.8956136565957138</v>
+        <v>1.056530253489189</v>
       </c>
       <c r="E19">
-        <v>0.9014749515112955</v>
+        <v>1.04853557668875</v>
       </c>
       <c r="F19">
-        <v>0.8843017836447736</v>
+        <v>1.060059558470135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024434133864051</v>
+        <v>1.02665969495871</v>
       </c>
       <c r="J19">
-        <v>0.9049458273397928</v>
+        <v>1.057651578128976</v>
       </c>
       <c r="K19">
-        <v>0.9084215438284695</v>
+        <v>1.059771100521481</v>
       </c>
       <c r="L19">
-        <v>0.9141784802492342</v>
+        <v>1.051802856359209</v>
       </c>
       <c r="M19">
-        <v>0.8973161764236317</v>
+        <v>1.063288875670698</v>
       </c>
       <c r="N19">
-        <v>0.9062309542133525</v>
+        <v>1.059153564684251</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8791387960139249</v>
+        <v>1.050399523633523</v>
       </c>
       <c r="D20">
-        <v>0.8956136565957138</v>
+        <v>1.055328483147265</v>
       </c>
       <c r="E20">
-        <v>0.9014749515112955</v>
+        <v>1.047426662252292</v>
       </c>
       <c r="F20">
-        <v>0.8843017836447736</v>
+        <v>1.058772692614951</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024434133864051</v>
+        <v>1.026513769793371</v>
       </c>
       <c r="J20">
-        <v>0.9049458273397928</v>
+        <v>1.056500220988964</v>
       </c>
       <c r="K20">
-        <v>0.9084215438284695</v>
+        <v>1.058635858814459</v>
       </c>
       <c r="L20">
-        <v>0.9141784802492342</v>
+        <v>1.050760762804018</v>
       </c>
       <c r="M20">
-        <v>0.8973161764236317</v>
+        <v>1.062068556607348</v>
       </c>
       <c r="N20">
-        <v>0.9062309542133525</v>
+        <v>1.058000572485037</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8791387960139249</v>
+        <v>1.046193306557141</v>
       </c>
       <c r="D21">
-        <v>0.8956136565957138</v>
+        <v>1.051369428819042</v>
       </c>
       <c r="E21">
-        <v>0.9014749515112955</v>
+        <v>1.043776754696832</v>
       </c>
       <c r="F21">
-        <v>0.8843017836447736</v>
+        <v>1.054525073655253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024434133864051</v>
+        <v>1.026021422321847</v>
       </c>
       <c r="J21">
-        <v>0.9049458273397928</v>
+        <v>1.052706548631622</v>
       </c>
       <c r="K21">
-        <v>0.9084215438284695</v>
+        <v>1.054893291657533</v>
       </c>
       <c r="L21">
-        <v>0.9141784802492342</v>
+        <v>1.047328189236921</v>
       </c>
       <c r="M21">
-        <v>0.8973161764236317</v>
+        <v>1.058037606133011</v>
       </c>
       <c r="N21">
-        <v>0.9062309542133525</v>
+        <v>1.054201512677808</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8791387960139249</v>
+        <v>1.043507294596701</v>
       </c>
       <c r="D22">
-        <v>0.8956136565957138</v>
+        <v>1.048838848916625</v>
       </c>
       <c r="E22">
-        <v>0.9014749515112955</v>
+        <v>1.04144628278001</v>
       </c>
       <c r="F22">
-        <v>0.8843017836447736</v>
+        <v>1.051803705481515</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024434133864051</v>
+        <v>1.025697857253487</v>
       </c>
       <c r="J22">
-        <v>0.9049458273397928</v>
+        <v>1.050281139700268</v>
       </c>
       <c r="K22">
-        <v>0.9084215438284695</v>
+        <v>1.052499021570306</v>
       </c>
       <c r="L22">
-        <v>0.9141784802492342</v>
+        <v>1.045134475064654</v>
       </c>
       <c r="M22">
-        <v>0.8973161764236317</v>
+        <v>1.055452763139123</v>
       </c>
       <c r="N22">
-        <v>0.9062309542133525</v>
+        <v>1.051772659387574</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8791387960139249</v>
+        <v>1.044935229208969</v>
       </c>
       <c r="D23">
-        <v>0.8956136565957138</v>
+        <v>1.050184379272343</v>
       </c>
       <c r="E23">
-        <v>0.9014749515112955</v>
+        <v>1.04268517729243</v>
       </c>
       <c r="F23">
-        <v>0.8843017836447736</v>
+        <v>1.0532512783055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024434133864051</v>
+        <v>1.025870730449888</v>
       </c>
       <c r="J23">
-        <v>0.9049458273397928</v>
+        <v>1.051570800829639</v>
       </c>
       <c r="K23">
-        <v>0.9084215438284695</v>
+        <v>1.053772269954542</v>
       </c>
       <c r="L23">
-        <v>0.9141784802492342</v>
+        <v>1.046300858512444</v>
       </c>
       <c r="M23">
-        <v>0.8973161764236317</v>
+        <v>1.056827929706489</v>
       </c>
       <c r="N23">
-        <v>0.9062309542133525</v>
+        <v>1.053064151983674</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8791387960139249</v>
+        <v>1.050469362534804</v>
       </c>
       <c r="D24">
-        <v>0.8956136565957138</v>
+        <v>1.055394178016388</v>
       </c>
       <c r="E24">
-        <v>0.9014749515112955</v>
+        <v>1.047487269024836</v>
       </c>
       <c r="F24">
-        <v>0.8843017836447736</v>
+        <v>1.058843069984619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024434133864051</v>
+        <v>1.02652179043213</v>
       </c>
       <c r="J24">
-        <v>0.9049458273397928</v>
+        <v>1.056563162613996</v>
       </c>
       <c r="K24">
-        <v>0.9084215438284695</v>
+        <v>1.058697926908439</v>
       </c>
       <c r="L24">
-        <v>0.9141784802492342</v>
+        <v>1.050817727248967</v>
       </c>
       <c r="M24">
-        <v>0.8973161764236317</v>
+        <v>1.062135305769897</v>
       </c>
       <c r="N24">
-        <v>0.9062309542133525</v>
+        <v>1.058063603494396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8791387960139249</v>
+        <v>1.056721224928137</v>
       </c>
       <c r="D25">
-        <v>0.8956136565957138</v>
+        <v>1.061269430093215</v>
       </c>
       <c r="E25">
-        <v>0.9014749515112955</v>
+        <v>1.052913305001949</v>
       </c>
       <c r="F25">
-        <v>0.8843017836447736</v>
+        <v>1.065122301412125</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024434133864051</v>
+        <v>1.027217986975638</v>
       </c>
       <c r="J25">
-        <v>0.9049458273397928</v>
+        <v>1.062190939807917</v>
       </c>
       <c r="K25">
-        <v>0.9084215438284695</v>
+        <v>1.064244010205935</v>
       </c>
       <c r="L25">
-        <v>0.9141784802492342</v>
+        <v>1.05591300574543</v>
       </c>
       <c r="M25">
-        <v>0.8973161764236317</v>
+        <v>1.068085443372787</v>
       </c>
       <c r="N25">
-        <v>0.9062309542133525</v>
+        <v>1.063699372777448</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061580654564151</v>
+        <v>0.8649913471622119</v>
       </c>
       <c r="D2">
-        <v>1.065827896789079</v>
+        <v>0.8822234255485605</v>
       </c>
       <c r="E2">
-        <v>1.057131682040233</v>
+        <v>0.889447976913604</v>
       </c>
       <c r="F2">
-        <v>1.069972722833207</v>
+        <v>0.869180170642008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027727093623883</v>
+        <v>1.021640491451859</v>
       </c>
       <c r="J2">
-        <v>1.066555599747767</v>
+        <v>0.8921253946744864</v>
       </c>
       <c r="K2">
-        <v>1.068540087318213</v>
+        <v>0.8956102838552529</v>
       </c>
       <c r="L2">
-        <v>1.059867491236546</v>
+        <v>0.902697403226458</v>
       </c>
       <c r="M2">
-        <v>1.072673802253232</v>
+        <v>0.8828227610052758</v>
       </c>
       <c r="N2">
-        <v>1.068070231035047</v>
+        <v>0.8933923150631373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065040037956285</v>
+        <v>0.9030954810410171</v>
       </c>
       <c r="D3">
-        <v>1.069068234466548</v>
+        <v>0.9182743614753575</v>
       </c>
       <c r="E3">
-        <v>1.060135155210381</v>
+        <v>0.9218705990114501</v>
       </c>
       <c r="F3">
-        <v>1.073408141163539</v>
+        <v>0.9098022635421181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028070710856076</v>
+        <v>1.029145822989186</v>
       </c>
       <c r="J3">
-        <v>1.069657140357252</v>
+        <v>0.926628220258053</v>
       </c>
       <c r="K3">
-        <v>1.071589856714869</v>
+        <v>0.9300720031521347</v>
       </c>
       <c r="L3">
-        <v>1.062679185340305</v>
+        <v>0.933611431568997</v>
       </c>
       <c r="M3">
-        <v>1.07591902199196</v>
+        <v>0.9217360175672437</v>
       </c>
       <c r="N3">
-        <v>1.071176176187948</v>
+        <v>0.9279441386165619</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067248008602524</v>
+        <v>0.9231667644870442</v>
       </c>
       <c r="D4">
-        <v>1.071134168909404</v>
+        <v>0.9372430573120309</v>
       </c>
       <c r="E4">
-        <v>1.062052334200652</v>
+        <v>0.9389854356422733</v>
       </c>
       <c r="F4">
-        <v>1.075592677910512</v>
+        <v>0.9310561521355284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028281227693845</v>
+        <v>1.033056712747941</v>
       </c>
       <c r="J4">
-        <v>1.07163410748539</v>
+        <v>0.9447633189888752</v>
       </c>
       <c r="K4">
-        <v>1.073532413656401</v>
+        <v>0.9481629566428177</v>
       </c>
       <c r="L4">
-        <v>1.064472152701901</v>
+        <v>0.9498806554817311</v>
       </c>
       <c r="M4">
-        <v>1.077980474568658</v>
+        <v>0.9420646299288663</v>
       </c>
       <c r="N4">
-        <v>1.073155950836169</v>
+        <v>0.9461049912677064</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068169144848626</v>
+        <v>0.9308698458187808</v>
       </c>
       <c r="D5">
-        <v>1.071995513156468</v>
+        <v>0.9445180598282403</v>
       </c>
       <c r="E5">
-        <v>1.062852201119229</v>
+        <v>0.9455600769295297</v>
       </c>
       <c r="F5">
-        <v>1.076502083246614</v>
+        <v>0.9391840631044069</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02836692821246</v>
+        <v>1.03454429103745</v>
       </c>
       <c r="J5">
-        <v>1.072458245337372</v>
+        <v>0.9517147790202786</v>
       </c>
       <c r="K5">
-        <v>1.07434186770134</v>
+        <v>0.9550928737424068</v>
       </c>
       <c r="L5">
-        <v>1.065219767329366</v>
+        <v>0.9561207726488674</v>
       </c>
       <c r="M5">
-        <v>1.078838124967922</v>
+        <v>0.9498317650686885</v>
       </c>
       <c r="N5">
-        <v>1.073981259058431</v>
+        <v>0.9530663231696984</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068323397383298</v>
+        <v>0.9321266950373635</v>
       </c>
       <c r="D6">
-        <v>1.072139721420079</v>
+        <v>0.9457047756220075</v>
       </c>
       <c r="E6">
-        <v>1.062986148615462</v>
+        <v>0.9466331245098142</v>
       </c>
       <c r="F6">
-        <v>1.076654256415823</v>
+        <v>0.9405086230527082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02838115432016</v>
+        <v>1.03478615461144</v>
       </c>
       <c r="J6">
-        <v>1.072596217761745</v>
+        <v>0.9528485062802454</v>
       </c>
       <c r="K6">
-        <v>1.074477361885809</v>
+        <v>0.9562228304909118</v>
       </c>
       <c r="L6">
-        <v>1.065344939300488</v>
+        <v>0.9571386939467801</v>
       </c>
       <c r="M6">
-        <v>1.078981607441688</v>
+        <v>0.9510971342469365</v>
       </c>
       <c r="N6">
-        <v>1.074119427419472</v>
+        <v>0.9542016604524146</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067260344483711</v>
+        <v>0.9232722661594147</v>
       </c>
       <c r="D7">
-        <v>1.071145706172244</v>
+        <v>0.9373427158077144</v>
       </c>
       <c r="E7">
-        <v>1.062063045864166</v>
+        <v>0.9390754594052032</v>
       </c>
       <c r="F7">
-        <v>1.075604864403499</v>
+        <v>0.9311675847736159</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028282383793984</v>
+        <v>1.03307714396793</v>
       </c>
       <c r="J7">
-        <v>1.071645146834968</v>
+        <v>0.9448585601922693</v>
       </c>
       <c r="K7">
-        <v>1.073543257655601</v>
+        <v>0.9482579206737677</v>
       </c>
       <c r="L7">
-        <v>1.064482166307488</v>
+        <v>0.9499661359226133</v>
       </c>
       <c r="M7">
-        <v>1.077991969559775</v>
+        <v>0.9421711439430803</v>
       </c>
       <c r="N7">
-        <v>1.07316700586289</v>
+        <v>0.9462003677245339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062756205664002</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D8">
-        <v>1.066929477155361</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E8">
-        <v>1.058152265983583</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F8">
-        <v>1.071141827687362</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027845688427606</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J8">
-        <v>1.067610094292387</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K8">
-        <v>1.06957727431475</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L8">
-        <v>1.060823283544782</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M8">
-        <v>1.073778626852897</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N8">
-        <v>1.069126223082872</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05457633822253</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D9">
-        <v>1.059255038775264</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E9">
-        <v>1.051051604810684</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F9">
-        <v>1.062972773626579</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026984124997332</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J9">
-        <v>1.06026168115583</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K9">
-        <v>1.062343576198544</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L9">
-        <v>1.054165851622549</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M9">
-        <v>1.066049802426094</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N9">
-        <v>1.061767374356786</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048945691897045</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D10">
-        <v>1.053960614735169</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E10">
-        <v>1.046165049848122</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F10">
-        <v>1.057306531186098</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026345641756164</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J10">
-        <v>1.055189612003984</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K10">
-        <v>1.057343246050095</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L10">
-        <v>1.049574718749255</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M10">
-        <v>1.06067769226162</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N10">
-        <v>1.05668810228497</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046462152304471</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D11">
-        <v>1.05162261630905</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E11">
-        <v>1.044010026579713</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F11">
-        <v>1.054797083036346</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026053424529779</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J11">
-        <v>1.052949190919478</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K11">
-        <v>1.055132754292324</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L11">
-        <v>1.047547687439034</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M11">
-        <v>1.058295873417507</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N11">
-        <v>1.054444499545544</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045532528053492</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D12">
-        <v>1.05074705687994</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E12">
-        <v>1.043203420550826</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F12">
-        <v>1.05385622645859</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025942465822295</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J12">
-        <v>1.052110080614742</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K12">
-        <v>1.054304589554308</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L12">
-        <v>1.046788641848603</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M12">
-        <v>1.05740247446871</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N12">
-        <v>1.053604197607928</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045732263146218</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D13">
-        <v>1.050935194503871</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E13">
-        <v>1.043376722179731</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F13">
-        <v>1.054058444261204</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025966377019747</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J13">
-        <v>1.052290390357483</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K13">
-        <v>1.0544825592172</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L13">
-        <v>1.04695174063664</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M13">
-        <v>1.057594509998905</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N13">
-        <v>1.053784763411185</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046385456464021</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D14">
-        <v>1.051550389328819</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E14">
-        <v>1.043943478956713</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F14">
-        <v>1.054719491739061</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026044302239201</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J14">
-        <v>1.052879972603673</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K14">
-        <v>1.055064444246472</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L14">
-        <v>1.047485070753219</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M14">
-        <v>1.058222203893707</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N14">
-        <v>1.054375182931792</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046786956730169</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D15">
-        <v>1.051928478387151</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E15">
-        <v>1.04429185568088</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F15">
-        <v>1.055125617043827</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026091992815471</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J15">
-        <v>1.053242308315352</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K15">
-        <v>1.055422014684583</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L15">
-        <v>1.047812854898847</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M15">
-        <v>1.058607785948017</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N15">
-        <v>1.054738033201742</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04910953367824</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D16">
-        <v>1.054114797416735</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E16">
-        <v>1.046307225864391</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F16">
-        <v>1.057471868637501</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026364699228755</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J16">
-        <v>1.055337346933546</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K16">
-        <v>1.057488970681316</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L16">
-        <v>1.049708402530066</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M16">
-        <v>1.060834565879851</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N16">
-        <v>1.056836047015077</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05055405360241</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D17">
-        <v>1.055473841964218</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E17">
-        <v>1.047560764834458</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F17">
-        <v>1.058928407358218</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026531509826261</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J17">
-        <v>1.056639487478737</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K17">
-        <v>1.058773191354055</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L17">
-        <v>1.050886804631241</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M17">
-        <v>1.062216241973179</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N17">
-        <v>1.0581400367492</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051392255249807</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D18">
-        <v>1.056262182124983</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E18">
-        <v>1.048288177261129</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F18">
-        <v>1.059772609015885</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026627291553075</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J18">
-        <v>1.057394760871275</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K18">
-        <v>1.05951790304564</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L18">
-        <v>1.051570397428649</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M18">
-        <v>1.063016802684503</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N18">
-        <v>1.058896382716586</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051677329297004</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D19">
-        <v>1.056530253489189</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E19">
-        <v>1.04853557668875</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F19">
-        <v>1.060059558470135</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02665969495871</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J19">
-        <v>1.057651578128976</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K19">
-        <v>1.059771100521481</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L19">
-        <v>1.051802856359209</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M19">
-        <v>1.063288875670698</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N19">
-        <v>1.059153564684251</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050399523633523</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D20">
-        <v>1.055328483147265</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E20">
-        <v>1.047426662252292</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F20">
-        <v>1.058772692614951</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026513769793371</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J20">
-        <v>1.056500220988964</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K20">
-        <v>1.058635858814459</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L20">
-        <v>1.050760762804018</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M20">
-        <v>1.062068556607348</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N20">
-        <v>1.058000572485037</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046193306557141</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D21">
-        <v>1.051369428819042</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E21">
-        <v>1.043776754696832</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F21">
-        <v>1.054525073655253</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026021422321847</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J21">
-        <v>1.052706548631622</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K21">
-        <v>1.054893291657533</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L21">
-        <v>1.047328189236921</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M21">
-        <v>1.058037606133011</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N21">
-        <v>1.054201512677808</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043507294596701</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D22">
-        <v>1.048838848916625</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E22">
-        <v>1.04144628278001</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F22">
-        <v>1.051803705481515</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025697857253487</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J22">
-        <v>1.050281139700268</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K22">
-        <v>1.052499021570306</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L22">
-        <v>1.045134475064654</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M22">
-        <v>1.055452763139123</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N22">
-        <v>1.051772659387574</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044935229208969</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D23">
-        <v>1.050184379272343</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E23">
-        <v>1.04268517729243</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F23">
-        <v>1.0532512783055</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025870730449888</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J23">
-        <v>1.051570800829639</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K23">
-        <v>1.053772269954542</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L23">
-        <v>1.046300858512444</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M23">
-        <v>1.056827929706489</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N23">
-        <v>1.053064151983674</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050469362534804</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D24">
-        <v>1.055394178016388</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E24">
-        <v>1.047487269024836</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F24">
-        <v>1.058843069984619</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02652179043213</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J24">
-        <v>1.056563162613996</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K24">
-        <v>1.058697926908439</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L24">
-        <v>1.050817727248967</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M24">
-        <v>1.062135305769897</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N24">
-        <v>1.058063603494396</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056721224928137</v>
+        <v>0.8791387960139265</v>
       </c>
       <c r="D25">
-        <v>1.061269430093215</v>
+        <v>0.8956136565957155</v>
       </c>
       <c r="E25">
-        <v>1.052913305001949</v>
+        <v>0.9014749515112969</v>
       </c>
       <c r="F25">
-        <v>1.065122301412125</v>
+        <v>0.8843017836447753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027217986975638</v>
+        <v>1.024434133864051</v>
       </c>
       <c r="J25">
-        <v>1.062190939807917</v>
+        <v>0.9049458273397946</v>
       </c>
       <c r="K25">
-        <v>1.064244010205935</v>
+        <v>0.9084215438284713</v>
       </c>
       <c r="L25">
-        <v>1.05591300574543</v>
+        <v>0.9141784802492356</v>
       </c>
       <c r="M25">
-        <v>1.068085443372787</v>
+        <v>0.8973161764236334</v>
       </c>
       <c r="N25">
-        <v>1.063699372777448</v>
+        <v>0.9062309542133541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8649913471622119</v>
+        <v>1.015915808692778</v>
       </c>
       <c r="D2">
-        <v>0.8822234255485605</v>
+        <v>1.025787593867278</v>
       </c>
       <c r="E2">
-        <v>0.889447976913604</v>
+        <v>1.029263633885876</v>
       </c>
       <c r="F2">
-        <v>0.869180170642008</v>
+        <v>1.038194480965674</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.021640491451859</v>
+        <v>1.055595336331488</v>
       </c>
       <c r="J2">
-        <v>0.8921253946744864</v>
+        <v>1.037630682604258</v>
       </c>
       <c r="K2">
-        <v>0.8956102838552529</v>
+        <v>1.036898986761172</v>
       </c>
       <c r="L2">
-        <v>0.902697403226458</v>
+        <v>1.040329795395581</v>
       </c>
       <c r="M2">
-        <v>0.8828227610052758</v>
+        <v>1.049146165595558</v>
       </c>
       <c r="N2">
-        <v>0.8933923150631373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016086183913949</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047468250836498</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037161041298977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9030954810410171</v>
+        <v>1.020227339017124</v>
       </c>
       <c r="D3">
-        <v>0.9182743614753575</v>
+        <v>1.028999329979548</v>
       </c>
       <c r="E3">
-        <v>0.9218705990114501</v>
+        <v>1.032644150104016</v>
       </c>
       <c r="F3">
-        <v>0.9098022635421181</v>
+        <v>1.041375781435581</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029145822989186</v>
+        <v>1.056685868229682</v>
       </c>
       <c r="J3">
-        <v>0.926628220258053</v>
+        <v>1.04018137358079</v>
       </c>
       <c r="K3">
-        <v>0.9300720031521347</v>
+        <v>1.039274132027452</v>
       </c>
       <c r="L3">
-        <v>0.933611431568997</v>
+        <v>1.042875709390968</v>
       </c>
       <c r="M3">
-        <v>0.9217360175672437</v>
+        <v>1.051505268835201</v>
       </c>
       <c r="N3">
-        <v>0.9279441386165619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016966660335787</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049335302702056</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038837815387482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9231667644870442</v>
+        <v>1.022962238960273</v>
       </c>
       <c r="D4">
-        <v>0.9372430573120309</v>
+        <v>1.031043107174648</v>
       </c>
       <c r="E4">
-        <v>0.9389854356422733</v>
+        <v>1.034794354918933</v>
       </c>
       <c r="F4">
-        <v>0.9310561521355284</v>
+        <v>1.043400456208619</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033056712747941</v>
+        <v>1.057362410102159</v>
       </c>
       <c r="J4">
-        <v>0.9447633189888752</v>
+        <v>1.041796264218086</v>
       </c>
       <c r="K4">
-        <v>0.9481629566428177</v>
+        <v>1.040780767405852</v>
       </c>
       <c r="L4">
-        <v>0.9498806554817311</v>
+        <v>1.044490223982086</v>
       </c>
       <c r="M4">
-        <v>0.9420646299288663</v>
+        <v>1.053001841756621</v>
       </c>
       <c r="N4">
-        <v>0.9461049912677064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017524049833579</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050519724598119</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039904035940415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9308698458187808</v>
+        <v>1.024104542089058</v>
       </c>
       <c r="D5">
-        <v>0.9445180598282403</v>
+        <v>1.031901321047264</v>
       </c>
       <c r="E5">
-        <v>0.9455600769295297</v>
+        <v>1.035694210277947</v>
       </c>
       <c r="F5">
-        <v>0.9391840631044069</v>
+        <v>1.044247229997524</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03454429103745</v>
+        <v>1.057642193893158</v>
       </c>
       <c r="J5">
-        <v>0.9517147790202786</v>
+        <v>1.042472032397716</v>
       </c>
       <c r="K5">
-        <v>0.9550928737424068</v>
+        <v>1.041414045223177</v>
       </c>
       <c r="L5">
-        <v>0.9561207726488674</v>
+        <v>1.045165816726171</v>
       </c>
       <c r="M5">
-        <v>0.9498317650686885</v>
+        <v>1.053627456780736</v>
       </c>
       <c r="N5">
-        <v>0.9530663231696984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017758131632181</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05101485002051</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040358984916528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9321266950373635</v>
+        <v>1.02430203216045</v>
       </c>
       <c r="D6">
-        <v>0.9457047756220075</v>
+        <v>1.032053477471327</v>
       </c>
       <c r="E6">
-        <v>0.9466331245098142</v>
+        <v>1.035850343033405</v>
       </c>
       <c r="F6">
-        <v>0.9405086230527082</v>
+        <v>1.044393169167998</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03478615461144</v>
+        <v>1.057691471055547</v>
       </c>
       <c r="J6">
-        <v>0.9528485062802454</v>
+        <v>1.042591295529582</v>
       </c>
       <c r="K6">
-        <v>0.9562228304909118</v>
+        <v>1.041528396566875</v>
       </c>
       <c r="L6">
-        <v>0.9571386939467801</v>
+        <v>1.045284292164003</v>
       </c>
       <c r="M6">
-        <v>0.9510971342469365</v>
+        <v>1.053736269239719</v>
       </c>
       <c r="N6">
-        <v>0.9542016604524146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017800478658005</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051100966548595</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040448580431365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9232722661594147</v>
+        <v>1.022994919371651</v>
       </c>
       <c r="D7">
-        <v>0.9373427158077144</v>
+        <v>1.031077557379481</v>
       </c>
       <c r="E7">
-        <v>0.9390754594052032</v>
+        <v>1.034821402270889</v>
       </c>
       <c r="F7">
-        <v>0.9311675847736159</v>
+        <v>1.043423201093127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03307714396793</v>
+        <v>1.057373462076746</v>
       </c>
       <c r="J7">
-        <v>0.9448585601922693</v>
+        <v>1.041822275811447</v>
       </c>
       <c r="K7">
-        <v>0.9482579206737677</v>
+        <v>1.040811951547396</v>
       </c>
       <c r="L7">
-        <v>0.9499661359226133</v>
+        <v>1.044514104694094</v>
       </c>
       <c r="M7">
-        <v>0.9421711439430803</v>
+        <v>1.053021504207778</v>
       </c>
       <c r="N7">
-        <v>0.9462003677245339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017535886414043</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05053528589729</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039946192915262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8791387960139265</v>
+        <v>1.01740661971365</v>
       </c>
       <c r="D8">
-        <v>0.8956136565957155</v>
+        <v>1.026909147271341</v>
       </c>
       <c r="E8">
-        <v>0.9014749515112969</v>
+        <v>1.030433060217772</v>
       </c>
       <c r="F8">
-        <v>0.8843017836447753</v>
+        <v>1.039291274742797</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024434133864051</v>
+        <v>1.055979215231</v>
       </c>
       <c r="J8">
-        <v>0.9049458273397946</v>
+        <v>1.03852166619811</v>
       </c>
       <c r="K8">
-        <v>0.9084215438284713</v>
+        <v>1.037736547966291</v>
       </c>
       <c r="L8">
-        <v>0.9141784802492356</v>
+        <v>1.041215991049687</v>
       </c>
       <c r="M8">
-        <v>0.8973161764236334</v>
+        <v>1.049964077159275</v>
       </c>
       <c r="N8">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016397483807451</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048115566537323</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037776208388702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8791387960139265</v>
+        <v>1.007089674346422</v>
       </c>
       <c r="D9">
-        <v>0.8956136565957155</v>
+        <v>1.019250991391282</v>
       </c>
       <c r="E9">
-        <v>0.9014749515112969</v>
+        <v>1.022377889563821</v>
       </c>
       <c r="F9">
-        <v>0.8843017836447753</v>
+        <v>1.031721090238022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024434133864051</v>
+        <v>1.053281969815443</v>
       </c>
       <c r="J9">
-        <v>0.9049458273397946</v>
+        <v>1.032394538180473</v>
       </c>
       <c r="K9">
-        <v>0.9084215438284713</v>
+        <v>1.032039269423557</v>
       </c>
       <c r="L9">
-        <v>0.9141784802492356</v>
+        <v>1.035118042465643</v>
       </c>
       <c r="M9">
-        <v>0.8973161764236334</v>
+        <v>1.044319656727112</v>
       </c>
       <c r="N9">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014279059371532</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043648419224989</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033744637223714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8791387960139265</v>
+        <v>0.9999663002818699</v>
       </c>
       <c r="D10">
-        <v>0.8956136565957155</v>
+        <v>1.014014867351624</v>
       </c>
       <c r="E10">
-        <v>0.9014749515112969</v>
+        <v>1.016888969252049</v>
       </c>
       <c r="F10">
-        <v>0.8843017836447753</v>
+        <v>1.026614810103332</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024434133864051</v>
+        <v>1.051361835464302</v>
       </c>
       <c r="J10">
-        <v>0.9049458273397946</v>
+        <v>1.028181255326402</v>
       </c>
       <c r="K10">
-        <v>0.9084215438284713</v>
+        <v>1.028135607089803</v>
       </c>
       <c r="L10">
-        <v>0.9141784802492356</v>
+        <v>1.030959839759013</v>
       </c>
       <c r="M10">
-        <v>0.8973161764236334</v>
+        <v>1.040519597061115</v>
       </c>
       <c r="N10">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012836922550829</v>
+      </c>
+      <c r="O10">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P10">
+        <v>1.040692234191962</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031001363448281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8791387960139265</v>
+        <v>0.9974214012131494</v>
       </c>
       <c r="D11">
-        <v>0.8956136565957155</v>
+        <v>1.012242814766676</v>
       </c>
       <c r="E11">
-        <v>0.9014749515112969</v>
+        <v>1.015230245215518</v>
       </c>
       <c r="F11">
-        <v>0.8843017836447753</v>
+        <v>1.025439308024183</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024434133864051</v>
+        <v>1.050797562136603</v>
       </c>
       <c r="J11">
-        <v>0.9049458273397946</v>
+        <v>1.026901847760925</v>
       </c>
       <c r="K11">
-        <v>0.9084215438284713</v>
+        <v>1.02693748469783</v>
       </c>
       <c r="L11">
-        <v>0.9141784802492356</v>
+        <v>1.02987054559973</v>
       </c>
       <c r="M11">
-        <v>0.8973161764236334</v>
+        <v>1.039896909998619</v>
       </c>
       <c r="N11">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012514997051777</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040634574368077</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030187275327129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8791387960139265</v>
+        <v>0.9966674800844191</v>
       </c>
       <c r="D12">
-        <v>0.8956136565957155</v>
+        <v>1.011748602803914</v>
       </c>
       <c r="E12">
-        <v>0.9014749515112969</v>
+        <v>1.014866080432103</v>
       </c>
       <c r="F12">
-        <v>0.8843017836447753</v>
+        <v>1.025373591049092</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024434133864051</v>
+        <v>1.050683489180002</v>
       </c>
       <c r="J12">
-        <v>0.9049458273397946</v>
+        <v>1.026613550859514</v>
       </c>
       <c r="K12">
-        <v>0.9084215438284713</v>
+        <v>1.026654127203279</v>
       </c>
       <c r="L12">
-        <v>0.9141784802492356</v>
+        <v>1.029713906292914</v>
       </c>
       <c r="M12">
-        <v>0.8973161764236334</v>
+        <v>1.040030300190711</v>
       </c>
       <c r="N12">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012504863756416</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04106570111342</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029986929955141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8791387960139265</v>
+        <v>0.9972706295093889</v>
       </c>
       <c r="D13">
-        <v>0.8956136565957155</v>
+        <v>1.012236342379911</v>
       </c>
       <c r="E13">
-        <v>0.9014749515112969</v>
+        <v>1.015499471995949</v>
       </c>
       <c r="F13">
-        <v>0.8843017836447753</v>
+        <v>1.026187981478686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024434133864051</v>
+        <v>1.050926722080029</v>
       </c>
       <c r="J13">
-        <v>0.9049458273397946</v>
+        <v>1.027097906670211</v>
       </c>
       <c r="K13">
-        <v>0.9084215438284713</v>
+        <v>1.027089549298768</v>
       </c>
       <c r="L13">
-        <v>0.9141784802492356</v>
+        <v>1.030292573513349</v>
       </c>
       <c r="M13">
-        <v>0.8973161764236334</v>
+        <v>1.040787680636684</v>
       </c>
       <c r="N13">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012747710202924</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041940579743014</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030292282614093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8791387960139265</v>
+        <v>0.9983070824133837</v>
       </c>
       <c r="D14">
-        <v>0.8956136565957155</v>
+        <v>1.013023899791069</v>
       </c>
       <c r="E14">
-        <v>0.9014749515112969</v>
+        <v>1.016392600171785</v>
       </c>
       <c r="F14">
-        <v>0.8843017836447753</v>
+        <v>1.027154372430655</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024434133864051</v>
+        <v>1.051258048632135</v>
       </c>
       <c r="J14">
-        <v>0.9049458273397946</v>
+        <v>1.027786213702887</v>
       </c>
       <c r="K14">
-        <v>0.9084215438284713</v>
+        <v>1.027720966545608</v>
       </c>
       <c r="L14">
-        <v>0.9141784802492356</v>
+        <v>1.03102843114324</v>
       </c>
       <c r="M14">
-        <v>0.8973161764236334</v>
+        <v>1.041598066137057</v>
       </c>
       <c r="N14">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013031800266309</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042754111169716</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030740154296944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8791387960139265</v>
+        <v>0.9988651876737913</v>
       </c>
       <c r="D15">
-        <v>0.8956136565957155</v>
+        <v>1.013441460352316</v>
       </c>
       <c r="E15">
-        <v>0.9014749515112969</v>
+        <v>1.016840985314347</v>
       </c>
       <c r="F15">
-        <v>0.8843017836447753</v>
+        <v>1.027600449047281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024434133864051</v>
+        <v>1.051422101304567</v>
       </c>
       <c r="J15">
-        <v>0.9049458273397946</v>
+        <v>1.028133877333003</v>
       </c>
       <c r="K15">
-        <v>0.9084215438284713</v>
+        <v>1.02804372056244</v>
       </c>
       <c r="L15">
-        <v>0.9141784802492356</v>
+        <v>1.031381939849948</v>
       </c>
       <c r="M15">
-        <v>0.8973161764236334</v>
+        <v>1.04195083441007</v>
       </c>
       <c r="N15">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013161501525636</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043070395446259</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030974260402316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8791387960139265</v>
+        <v>1.00177951026753</v>
       </c>
       <c r="D16">
-        <v>0.8956136565957155</v>
+        <v>1.015573871083019</v>
       </c>
       <c r="E16">
-        <v>0.9014749515112969</v>
+        <v>1.019057710020633</v>
       </c>
       <c r="F16">
-        <v>0.8843017836447753</v>
+        <v>1.029645969176556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024434133864051</v>
+        <v>1.052214570900336</v>
       </c>
       <c r="J16">
-        <v>0.9049458273397946</v>
+        <v>1.029846142813249</v>
       </c>
       <c r="K16">
-        <v>0.9084215438284713</v>
+        <v>1.029631645669956</v>
       </c>
       <c r="L16">
-        <v>0.9141784802492356</v>
+        <v>1.033055497759996</v>
       </c>
       <c r="M16">
-        <v>0.8973161764236334</v>
+        <v>1.043464652318018</v>
       </c>
       <c r="N16">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013732920234516</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044228295627496</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032100170010264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8791387960139265</v>
+        <v>1.00347363016138</v>
       </c>
       <c r="D17">
-        <v>0.8956136565957155</v>
+        <v>1.016800316551247</v>
       </c>
       <c r="E17">
-        <v>0.9014749515112969</v>
+        <v>1.020292015526711</v>
       </c>
       <c r="F17">
-        <v>0.8843017836447753</v>
+        <v>1.030704729530759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024434133864051</v>
+        <v>1.052645272581</v>
       </c>
       <c r="J17">
-        <v>0.9049458273397946</v>
+        <v>1.03079897324617</v>
       </c>
       <c r="K17">
-        <v>0.9084215438284713</v>
+        <v>1.030520050952812</v>
       </c>
       <c r="L17">
-        <v>0.9141784802492356</v>
+        <v>1.033953367046325</v>
       </c>
       <c r="M17">
-        <v>0.8973161764236334</v>
+        <v>1.044194991807566</v>
       </c>
       <c r="N17">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014022661252672</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044676904063191</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032730907190908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8791387960139265</v>
+        <v>1.004252719583979</v>
       </c>
       <c r="D18">
-        <v>0.8956136565957155</v>
+        <v>1.017330865464872</v>
       </c>
       <c r="E18">
-        <v>0.9014749515112969</v>
+        <v>1.020756539719758</v>
       </c>
       <c r="F18">
-        <v>0.8843017836447753</v>
+        <v>1.030955364477161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024434133864051</v>
+        <v>1.05279299038361</v>
       </c>
       <c r="J18">
-        <v>0.9049458273397946</v>
+        <v>1.031156021463919</v>
       </c>
       <c r="K18">
-        <v>0.9084215438284713</v>
+        <v>1.030857004051739</v>
       </c>
       <c r="L18">
-        <v>0.9141784802492356</v>
+        <v>1.034226355022168</v>
       </c>
       <c r="M18">
-        <v>0.8973161764236334</v>
+        <v>1.044260336289688</v>
       </c>
       <c r="N18">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01408099351873</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044491641334942</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032957454674288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8791387960139265</v>
+        <v>1.004215953164345</v>
       </c>
       <c r="D19">
-        <v>0.8956136565957155</v>
+        <v>1.017254603231875</v>
       </c>
       <c r="E19">
-        <v>0.9014749515112969</v>
+        <v>1.020528660756183</v>
       </c>
       <c r="F19">
-        <v>0.8843017836447753</v>
+        <v>1.030472439169216</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024434133864051</v>
+        <v>1.052691196407697</v>
       </c>
       <c r="J19">
-        <v>0.9049458273397946</v>
+        <v>1.030986925790845</v>
       </c>
       <c r="K19">
-        <v>0.9084215438284713</v>
+        <v>1.030719018172974</v>
       </c>
       <c r="L19">
-        <v>0.9141784802492356</v>
+        <v>1.033939512127574</v>
       </c>
       <c r="M19">
-        <v>0.8973161764236334</v>
+        <v>1.043723283987253</v>
       </c>
       <c r="N19">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013941468470234</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043742651938888</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03286631775051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8791387960139265</v>
+        <v>1.001864459144208</v>
       </c>
       <c r="D20">
-        <v>0.8956136565957155</v>
+        <v>1.015433181951482</v>
       </c>
       <c r="E20">
-        <v>0.9014749515112969</v>
+        <v>1.018355175435482</v>
       </c>
       <c r="F20">
-        <v>0.8843017836447753</v>
+        <v>1.027973545495344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024434133864051</v>
+        <v>1.051886593991778</v>
       </c>
       <c r="J20">
-        <v>0.9049458273397946</v>
+        <v>1.029323697730107</v>
       </c>
       <c r="K20">
-        <v>0.9084215438284713</v>
+        <v>1.029209979355044</v>
       </c>
       <c r="L20">
-        <v>0.9141784802492356</v>
+        <v>1.03208277121028</v>
       </c>
       <c r="M20">
-        <v>0.8973161764236334</v>
+        <v>1.041541723641902</v>
       </c>
       <c r="N20">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013237138279319</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041490616618032</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031803306857489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8791387960139265</v>
+        <v>0.9963778255799558</v>
       </c>
       <c r="D21">
-        <v>0.8956136565957155</v>
+        <v>1.011393035720034</v>
       </c>
       <c r="E21">
-        <v>0.9014749515112969</v>
+        <v>1.014083328367066</v>
       </c>
       <c r="F21">
-        <v>0.8843017836447753</v>
+        <v>1.023931511456837</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024434133864051</v>
+        <v>1.050354209730232</v>
       </c>
       <c r="J21">
-        <v>0.9049458273397946</v>
+        <v>1.026027772942457</v>
       </c>
       <c r="K21">
-        <v>0.9084215438284713</v>
+        <v>1.026161731175076</v>
       </c>
       <c r="L21">
-        <v>0.9141784802492356</v>
+        <v>1.028802711312429</v>
       </c>
       <c r="M21">
-        <v>0.8973161764236334</v>
+        <v>1.038473248554202</v>
       </c>
       <c r="N21">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012086795157241</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039021384477001</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029651321558327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8791387960139265</v>
+        <v>0.9928676585811345</v>
       </c>
       <c r="D22">
-        <v>0.8956136565957155</v>
+        <v>1.008812121813009</v>
       </c>
       <c r="E22">
-        <v>0.9014749515112969</v>
+        <v>1.011375459393686</v>
       </c>
       <c r="F22">
-        <v>0.8843017836447753</v>
+        <v>1.021397319316828</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024434133864051</v>
+        <v>1.049364806951605</v>
       </c>
       <c r="J22">
-        <v>0.9049458273397946</v>
+        <v>1.023924120875794</v>
       </c>
       <c r="K22">
-        <v>0.9084215438284713</v>
+        <v>1.024211007071942</v>
       </c>
       <c r="L22">
-        <v>0.9141784802492356</v>
+        <v>1.026724885015588</v>
       </c>
       <c r="M22">
-        <v>0.8973161764236334</v>
+        <v>1.036556483692173</v>
       </c>
       <c r="N22">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011355676222758</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037504388875835</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028258461611979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8791387960139265</v>
+        <v>0.9947185600736692</v>
       </c>
       <c r="D23">
-        <v>0.8956136565957155</v>
+        <v>1.010162985959626</v>
       </c>
       <c r="E23">
-        <v>0.9014749515112969</v>
+        <v>1.012800742649482</v>
       </c>
       <c r="F23">
-        <v>0.8843017836447753</v>
+        <v>1.022733748704297</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024434133864051</v>
+        <v>1.049885579588979</v>
       </c>
       <c r="J23">
-        <v>0.9049458273397946</v>
+        <v>1.025027229648163</v>
       </c>
       <c r="K23">
-        <v>0.9084215438284713</v>
+        <v>1.025227553512497</v>
       </c>
       <c r="L23">
-        <v>0.9141784802492356</v>
+        <v>1.027815769266346</v>
       </c>
       <c r="M23">
-        <v>0.8973161764236334</v>
+        <v>1.037565203536002</v>
       </c>
       <c r="N23">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011735857643228</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038302725889032</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028967503594769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,78 +1599,102 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8791387960139265</v>
+        <v>1.001867662288785</v>
       </c>
       <c r="D24">
-        <v>0.8956136565957155</v>
+        <v>1.015413382933996</v>
       </c>
       <c r="E24">
-        <v>0.9014749515112969</v>
+        <v>1.018326409475325</v>
       </c>
       <c r="F24">
-        <v>0.8843017836447753</v>
+        <v>1.027914253017155</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024434133864051</v>
+        <v>1.051870345619413</v>
       </c>
       <c r="J24">
-        <v>0.9049458273397946</v>
+        <v>1.029294007150186</v>
       </c>
       <c r="K24">
-        <v>0.9084215438284713</v>
+        <v>1.029175123058132</v>
       </c>
       <c r="L24">
-        <v>0.9141784802492356</v>
+        <v>1.032039158879119</v>
       </c>
       <c r="M24">
-        <v>0.8973161764236334</v>
+        <v>1.041468276727591</v>
       </c>
       <c r="N24">
-        <v>0.9062309542133541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013211733997252</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041391749433706</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031751106030035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.8791387960139265</v>
+        <v>1.009841040514264</v>
       </c>
       <c r="D25">
-        <v>0.8956136565957155</v>
+        <v>1.021302500322359</v>
       </c>
       <c r="E25">
-        <v>0.9014749515112969</v>
+        <v>1.024522572831509</v>
       </c>
       <c r="F25">
-        <v>0.8843017836447753</v>
+        <v>1.033730910599455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024434133864051</v>
+        <v>1.054019215657238</v>
       </c>
       <c r="J25">
-        <v>0.9049458273397946</v>
+        <v>1.03404169333338</v>
       </c>
       <c r="K25">
-        <v>0.9084215438284713</v>
+        <v>1.03357888383157</v>
       </c>
       <c r="L25">
-        <v>0.9141784802492356</v>
+        <v>1.036751771260686</v>
       </c>
       <c r="M25">
-        <v>0.8973161764236334</v>
+        <v>1.045827228553433</v>
       </c>
       <c r="N25">
-        <v>0.9062309542133541</v>
+        <v>1.014853580379839</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044841555089099</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034861937063224</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015915808692778</v>
+        <v>1.015418117621999</v>
       </c>
       <c r="D2">
-        <v>1.025787593867278</v>
+        <v>1.024759631565337</v>
       </c>
       <c r="E2">
-        <v>1.029263633885876</v>
+        <v>1.028905500443049</v>
       </c>
       <c r="F2">
-        <v>1.038194480965674</v>
+        <v>1.03789904370186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055595336331488</v>
+        <v>1.055387997582603</v>
       </c>
       <c r="J2">
-        <v>1.037630682604258</v>
+        <v>1.037147255630648</v>
       </c>
       <c r="K2">
-        <v>1.036898986761172</v>
+        <v>1.035884474312304</v>
       </c>
       <c r="L2">
-        <v>1.040329795395581</v>
+        <v>1.03997630442749</v>
       </c>
       <c r="M2">
-        <v>1.049146165595558</v>
+        <v>1.048854475945429</v>
       </c>
       <c r="N2">
-        <v>1.016086183913949</v>
+        <v>1.016842258305379</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047468250836498</v>
+        <v>1.047237400203297</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037161041298977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036452482074073</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02147094544955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020227339017124</v>
+        <v>1.019436679561133</v>
       </c>
       <c r="D3">
-        <v>1.028999329979548</v>
+        <v>1.027588588003818</v>
       </c>
       <c r="E3">
-        <v>1.032644150104016</v>
+        <v>1.032045779253236</v>
       </c>
       <c r="F3">
-        <v>1.041375781435581</v>
+        <v>1.040893816078633</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056685868229682</v>
+        <v>1.056355412520461</v>
       </c>
       <c r="J3">
-        <v>1.04018137358079</v>
+        <v>1.039411148989625</v>
       </c>
       <c r="K3">
-        <v>1.039274132027452</v>
+        <v>1.037880229447054</v>
       </c>
       <c r="L3">
-        <v>1.042875709390968</v>
+        <v>1.042284411754421</v>
       </c>
       <c r="M3">
-        <v>1.051505268835201</v>
+        <v>1.051028882418198</v>
       </c>
       <c r="N3">
-        <v>1.016966660335787</v>
+        <v>1.017456479552238</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049335302702056</v>
+        <v>1.048958279246319</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038837815387482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037860711486841</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021915699349943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022962238960273</v>
+        <v>1.021987934856823</v>
       </c>
       <c r="D4">
-        <v>1.031043107174648</v>
+        <v>1.029391013923291</v>
       </c>
       <c r="E4">
-        <v>1.034794354918933</v>
+        <v>1.034045263983238</v>
       </c>
       <c r="F4">
-        <v>1.043400456208619</v>
+        <v>1.042801522878098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057362410102159</v>
+        <v>1.056954454201711</v>
       </c>
       <c r="J4">
-        <v>1.041796264218086</v>
+        <v>1.040845433598488</v>
       </c>
       <c r="K4">
-        <v>1.040780767405852</v>
+        <v>1.039147198439224</v>
       </c>
       <c r="L4">
-        <v>1.044490223982086</v>
+        <v>1.043749448569566</v>
       </c>
       <c r="M4">
-        <v>1.053001841756621</v>
+        <v>1.052409421949328</v>
       </c>
       <c r="N4">
-        <v>1.017524049833579</v>
+        <v>1.017845742317083</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050519724598119</v>
+        <v>1.050050870294506</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039904035940415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038757547298635</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022195697165272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024104542089058</v>
+        <v>1.023053675595593</v>
       </c>
       <c r="D5">
-        <v>1.031901321047264</v>
+        <v>1.030148472249854</v>
       </c>
       <c r="E5">
-        <v>1.035694210277947</v>
+        <v>1.034882208410829</v>
       </c>
       <c r="F5">
-        <v>1.044247229997524</v>
+        <v>1.043599497227954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057642193893158</v>
+        <v>1.05720185336106</v>
       </c>
       <c r="J5">
-        <v>1.042472032397716</v>
+        <v>1.041445725950191</v>
       </c>
       <c r="K5">
-        <v>1.041414045223177</v>
+        <v>1.039680324192596</v>
       </c>
       <c r="L5">
-        <v>1.045165816726171</v>
+        <v>1.044362586466812</v>
       </c>
       <c r="M5">
-        <v>1.053627456780736</v>
+        <v>1.052986580184051</v>
       </c>
       <c r="N5">
-        <v>1.017758131632181</v>
+        <v>1.018009262435705</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05101485002051</v>
+        <v>1.050507646251474</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040358984916528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039142394915224</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022313744401507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02430203216045</v>
+        <v>1.023237526059159</v>
       </c>
       <c r="D6">
-        <v>1.032053477471327</v>
+        <v>1.030282886055621</v>
       </c>
       <c r="E6">
-        <v>1.035850343033405</v>
+        <v>1.035027070876447</v>
       </c>
       <c r="F6">
-        <v>1.044393169167998</v>
+        <v>1.043736709367482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057691471055547</v>
+        <v>1.05724535781152</v>
       </c>
       <c r="J6">
-        <v>1.042591295529582</v>
+        <v>1.041551539905256</v>
       </c>
       <c r="K6">
-        <v>1.041528396566875</v>
+        <v>1.039777037348817</v>
       </c>
       <c r="L6">
-        <v>1.045284292164003</v>
+        <v>1.044469872218951</v>
       </c>
       <c r="M6">
-        <v>1.053736269239719</v>
+        <v>1.053086726078482</v>
       </c>
       <c r="N6">
-        <v>1.017800478658005</v>
+        <v>1.018038783126294</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051100966548595</v>
+        <v>1.05058690392745</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040448580431365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039220393078342</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022336091828068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022994919371651</v>
+        <v>1.02202618755475</v>
       </c>
       <c r="D7">
-        <v>1.031077557379481</v>
+        <v>1.029428987152546</v>
       </c>
       <c r="E7">
-        <v>1.034821402270889</v>
+        <v>1.034077058692822</v>
       </c>
       <c r="F7">
-        <v>1.043423201093127</v>
+        <v>1.042827874548411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057373462076746</v>
+        <v>1.056967833164686</v>
       </c>
       <c r="J7">
-        <v>1.041822275811447</v>
+        <v>1.04087687256409</v>
       </c>
       <c r="K7">
-        <v>1.040811951547396</v>
+        <v>1.039181858340432</v>
       </c>
       <c r="L7">
-        <v>1.044514104694094</v>
+        <v>1.043778020609943</v>
       </c>
       <c r="M7">
-        <v>1.053021504207778</v>
+        <v>1.05243264943671</v>
       </c>
       <c r="N7">
-        <v>1.017535886414043</v>
+        <v>1.017882693059241</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05053528589729</v>
+        <v>1.05006925305378</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039946192915262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038804172764695</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022207078546729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01740661971365</v>
+        <v>1.016833017337576</v>
       </c>
       <c r="D8">
-        <v>1.026909147271341</v>
+        <v>1.025769873931281</v>
       </c>
       <c r="E8">
-        <v>1.030433060217772</v>
+        <v>1.030013654004235</v>
       </c>
       <c r="F8">
-        <v>1.039291274742797</v>
+        <v>1.038947893109827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055979215231</v>
+        <v>1.055739981511399</v>
       </c>
       <c r="J8">
-        <v>1.03852166619811</v>
+        <v>1.037963947983077</v>
       </c>
       <c r="K8">
-        <v>1.037736547966291</v>
+        <v>1.036611733249097</v>
       </c>
       <c r="L8">
-        <v>1.041215991049687</v>
+        <v>1.040801857615774</v>
       </c>
       <c r="M8">
-        <v>1.049964077159275</v>
+        <v>1.049624921027847</v>
       </c>
       <c r="N8">
-        <v>1.016397483807451</v>
+        <v>1.017147037882209</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048115566537323</v>
+        <v>1.047847149947496</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037776208388702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036991930080182</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02164029287675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007089674346422</v>
+        <v>1.007236572732485</v>
       </c>
       <c r="D9">
-        <v>1.019250991391282</v>
+        <v>1.019041420440158</v>
       </c>
       <c r="E9">
-        <v>1.022377889563821</v>
+        <v>1.022548743334143</v>
       </c>
       <c r="F9">
-        <v>1.031721090238022</v>
+        <v>1.031836264044642</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053281969815443</v>
+        <v>1.05334335633236</v>
       </c>
       <c r="J9">
-        <v>1.032394538180473</v>
+        <v>1.032536351706817</v>
       </c>
       <c r="K9">
-        <v>1.032039269423557</v>
+        <v>1.031832937401174</v>
       </c>
       <c r="L9">
-        <v>1.035118042465643</v>
+        <v>1.03528627749761</v>
       </c>
       <c r="M9">
-        <v>1.044319656727112</v>
+        <v>1.044433105554037</v>
       </c>
       <c r="N9">
-        <v>1.014279059371532</v>
+        <v>1.015683189774597</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043648419224989</v>
+        <v>1.043738205969503</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033744637223714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033609530052271</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020559942354379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999663002818699</v>
+        <v>1.00065823449182</v>
       </c>
       <c r="D10">
-        <v>1.014014867351624</v>
+        <v>1.01448332960658</v>
       </c>
       <c r="E10">
-        <v>1.016888969252049</v>
+        <v>1.01750551732351</v>
       </c>
       <c r="F10">
-        <v>1.026614810103332</v>
+        <v>1.027076350632447</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051361835464302</v>
+        <v>1.051648302723643</v>
       </c>
       <c r="J10">
-        <v>1.028181255326402</v>
+        <v>1.028845760934978</v>
       </c>
       <c r="K10">
-        <v>1.028135607089803</v>
+        <v>1.028595915992208</v>
       </c>
       <c r="L10">
-        <v>1.030959839759013</v>
+        <v>1.031565737424318</v>
       </c>
       <c r="M10">
-        <v>1.040519597061115</v>
+        <v>1.040973356914163</v>
       </c>
       <c r="N10">
-        <v>1.012836922550829</v>
+        <v>1.014811922818504</v>
       </c>
       <c r="O10">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040692234191962</v>
+        <v>1.041051332248733</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031001363448281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031339312124052</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019829929607888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9974214012131494</v>
+        <v>0.9983161882258136</v>
       </c>
       <c r="D11">
-        <v>1.012242814766676</v>
+        <v>1.012954423465852</v>
       </c>
       <c r="E11">
-        <v>1.015230245215518</v>
+        <v>1.016003112212107</v>
       </c>
       <c r="F11">
-        <v>1.025439308024183</v>
+        <v>1.02602412598693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050797562136603</v>
+        <v>1.051167127546901</v>
       </c>
       <c r="J11">
-        <v>1.026901847760925</v>
+        <v>1.027759183894905</v>
       </c>
       <c r="K11">
-        <v>1.02693748469783</v>
+        <v>1.027636104649088</v>
       </c>
       <c r="L11">
-        <v>1.02987054559973</v>
+        <v>1.0306294145495</v>
       </c>
       <c r="M11">
-        <v>1.039896909998619</v>
+        <v>1.040471404985886</v>
       </c>
       <c r="N11">
-        <v>1.012514997051777</v>
+        <v>1.014825590658242</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040634574368077</v>
+        <v>1.041088992926684</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030187275327129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030696934078822</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019683190594537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9966674800844191</v>
+        <v>0.997605475690547</v>
       </c>
       <c r="D12">
-        <v>1.011748602803914</v>
+        <v>1.012515411947504</v>
       </c>
       <c r="E12">
-        <v>1.014866080432103</v>
+        <v>1.015665193298708</v>
       </c>
       <c r="F12">
-        <v>1.025373591049092</v>
+        <v>1.025980802436312</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050683489180002</v>
+        <v>1.051070565083657</v>
       </c>
       <c r="J12">
-        <v>1.026613550859514</v>
+        <v>1.027511522955329</v>
       </c>
       <c r="K12">
-        <v>1.026654127203279</v>
+        <v>1.027406701210933</v>
       </c>
       <c r="L12">
-        <v>1.029713906292914</v>
+        <v>1.030498303417252</v>
       </c>
       <c r="M12">
-        <v>1.040030300190711</v>
+        <v>1.040626622676194</v>
       </c>
       <c r="N12">
-        <v>1.012504863756416</v>
+        <v>1.014915586973582</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04106570111342</v>
+        <v>1.041537226131806</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029986929955141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030534740087412</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019679797774444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9972706295093889</v>
+        <v>0.9981162961794889</v>
       </c>
       <c r="D13">
-        <v>1.012236342379911</v>
+        <v>1.012904087575983</v>
       </c>
       <c r="E13">
-        <v>1.015499471995949</v>
+        <v>1.016214151465156</v>
       </c>
       <c r="F13">
-        <v>1.026187981478686</v>
+        <v>1.026732064509468</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I13">
-        <v>1.050926722080029</v>
+        <v>1.05127575258444</v>
       </c>
       <c r="J13">
-        <v>1.027097906670211</v>
+        <v>1.027907678716875</v>
       </c>
       <c r="K13">
-        <v>1.027089549298768</v>
+        <v>1.027744953846128</v>
       </c>
       <c r="L13">
-        <v>1.030292573513349</v>
+        <v>1.030994156001419</v>
       </c>
       <c r="M13">
-        <v>1.040787680636684</v>
+        <v>1.041322058618692</v>
       </c>
       <c r="N13">
-        <v>1.012747710202924</v>
+        <v>1.01504321447349</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041940579743014</v>
+        <v>1.042363018258269</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030292282614093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030771142945041</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019794590791203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9983070824133837</v>
+        <v>0.9990281286534362</v>
       </c>
       <c r="D14">
-        <v>1.013023899791069</v>
+        <v>1.013553874445799</v>
       </c>
       <c r="E14">
-        <v>1.016392600171785</v>
+        <v>1.016999827823077</v>
       </c>
       <c r="F14">
-        <v>1.027154372430655</v>
+        <v>1.027616797372143</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051258048632135</v>
+        <v>1.051555820946521</v>
       </c>
       <c r="J14">
-        <v>1.027786213702887</v>
+        <v>1.028477106507175</v>
       </c>
       <c r="K14">
-        <v>1.027720966545608</v>
+        <v>1.028241272274372</v>
       </c>
       <c r="L14">
-        <v>1.03102843114324</v>
+        <v>1.031624676799675</v>
       </c>
       <c r="M14">
-        <v>1.041598066137057</v>
+        <v>1.042052351976688</v>
       </c>
       <c r="N14">
-        <v>1.013031800266309</v>
+        <v>1.015151430508767</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042754111169716</v>
+        <v>1.043113186704646</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030740154296944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031123624549745</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019929624232897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9988651876737913</v>
+        <v>0.9995261849390569</v>
       </c>
       <c r="D15">
-        <v>1.013441460352316</v>
+        <v>1.013903827533342</v>
       </c>
       <c r="E15">
-        <v>1.016840985314347</v>
+        <v>1.017397975608842</v>
       </c>
       <c r="F15">
-        <v>1.027600449047281</v>
+        <v>1.028024326439494</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051422101304567</v>
+        <v>1.051695177614315</v>
       </c>
       <c r="J15">
-        <v>1.028133877333003</v>
+        <v>1.028767480175438</v>
       </c>
       <c r="K15">
-        <v>1.02804372056244</v>
+        <v>1.028497718188349</v>
       </c>
       <c r="L15">
-        <v>1.031381939849948</v>
+        <v>1.031928936346249</v>
       </c>
       <c r="M15">
-        <v>1.04195083441007</v>
+        <v>1.042367309949008</v>
       </c>
       <c r="N15">
-        <v>1.013161501525636</v>
+        <v>1.015193158039133</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043070395446259</v>
+        <v>1.043399576443066</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030974260402316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031311413920057</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019992495186664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00177951026753</v>
+        <v>1.002168546564446</v>
       </c>
       <c r="D16">
-        <v>1.015573871083019</v>
+        <v>1.015720167889679</v>
       </c>
       <c r="E16">
-        <v>1.019057710020633</v>
+        <v>1.019394214723798</v>
       </c>
       <c r="F16">
-        <v>1.029645969176556</v>
+        <v>1.02989873264797</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052214570900336</v>
+        <v>1.052375701081862</v>
       </c>
       <c r="J16">
-        <v>1.029846142813249</v>
+        <v>1.03021987894342</v>
       </c>
       <c r="K16">
-        <v>1.029631645669956</v>
+        <v>1.029775412742113</v>
       </c>
       <c r="L16">
-        <v>1.033055497759996</v>
+        <v>1.033386236381772</v>
       </c>
       <c r="M16">
-        <v>1.043464652318018</v>
+        <v>1.043713198178501</v>
       </c>
       <c r="N16">
-        <v>1.013732920234516</v>
+        <v>1.015364710590598</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044228295627496</v>
+        <v>1.044424751170432</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032100170010264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032218268678822</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020271180279979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00347363016138</v>
+        <v>1.003728557904042</v>
       </c>
       <c r="D17">
-        <v>1.016800316551247</v>
+        <v>1.016783385490726</v>
       </c>
       <c r="E17">
-        <v>1.020292015526711</v>
+        <v>1.020522655839633</v>
       </c>
       <c r="F17">
-        <v>1.030704729530759</v>
+        <v>1.030874430766613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052645272581</v>
+        <v>1.052751086551804</v>
       </c>
       <c r="J17">
-        <v>1.03079897324617</v>
+        <v>1.031044203345483</v>
       </c>
       <c r="K17">
-        <v>1.030520050952812</v>
+        <v>1.030503404247249</v>
       </c>
       <c r="L17">
-        <v>1.033953367046325</v>
+        <v>1.034180169058924</v>
       </c>
       <c r="M17">
-        <v>1.044194991807566</v>
+        <v>1.044361941472319</v>
       </c>
       <c r="N17">
-        <v>1.014022661252672</v>
+        <v>1.015468877476171</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044676904063191</v>
+        <v>1.044808877472414</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032730907190908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032735829745848</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020416103094923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004252719583979</v>
+        <v>1.004470678751264</v>
       </c>
       <c r="D18">
-        <v>1.017330865464872</v>
+        <v>1.017260985868473</v>
       </c>
       <c r="E18">
-        <v>1.020756539719758</v>
+        <v>1.020962915230953</v>
       </c>
       <c r="F18">
-        <v>1.030955364477161</v>
+        <v>1.03110455985416</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05279299038361</v>
+        <v>1.052883583596239</v>
       </c>
       <c r="J18">
-        <v>1.031156021463919</v>
+        <v>1.031365846710438</v>
       </c>
       <c r="K18">
-        <v>1.030857004051739</v>
+        <v>1.030788278462337</v>
       </c>
       <c r="L18">
-        <v>1.034226355022168</v>
+        <v>1.034429352923589</v>
       </c>
       <c r="M18">
-        <v>1.044260336289688</v>
+        <v>1.044407151243375</v>
       </c>
       <c r="N18">
-        <v>1.01408099351873</v>
+        <v>1.015474809030557</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044491641334942</v>
+        <v>1.044607722338759</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032957454674288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032924418401965</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020445960775737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004215953164345</v>
+        <v>1.004473970429438</v>
       </c>
       <c r="D19">
-        <v>1.017254603231875</v>
+        <v>1.017222496195527</v>
       </c>
       <c r="E19">
-        <v>1.020528660756183</v>
+        <v>1.020775291789667</v>
       </c>
       <c r="F19">
-        <v>1.030472439169216</v>
+        <v>1.030650757059928</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052691196407697</v>
+        <v>1.052798423506708</v>
       </c>
       <c r="J19">
-        <v>1.030986925790845</v>
+        <v>1.031235370019052</v>
       </c>
       <c r="K19">
-        <v>1.030719018172974</v>
+        <v>1.030687438603204</v>
       </c>
       <c r="L19">
-        <v>1.033939512127574</v>
+        <v>1.034182126157389</v>
       </c>
       <c r="M19">
-        <v>1.043723283987253</v>
+        <v>1.043898768645658</v>
       </c>
       <c r="N19">
-        <v>1.013941468470234</v>
+        <v>1.015378005403629</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043742651938888</v>
+        <v>1.043881445999538</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03286631775051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03286016959141</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020379543636396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001864459144208</v>
+        <v>1.002380959218286</v>
       </c>
       <c r="D20">
-        <v>1.015433181951482</v>
+        <v>1.01569606889417</v>
       </c>
       <c r="E20">
-        <v>1.018355175435482</v>
+        <v>1.018826374182878</v>
       </c>
       <c r="F20">
-        <v>1.027973545495344</v>
+        <v>1.028322738340854</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051886593991778</v>
+        <v>1.052100742544559</v>
       </c>
       <c r="J20">
-        <v>1.029323697730107</v>
+        <v>1.029820406413241</v>
       </c>
       <c r="K20">
-        <v>1.029209979355044</v>
+        <v>1.029468424756869</v>
       </c>
       <c r="L20">
-        <v>1.03208277121028</v>
+        <v>1.032546069796693</v>
       </c>
       <c r="M20">
-        <v>1.041541723641902</v>
+        <v>1.041885200979967</v>
       </c>
       <c r="N20">
-        <v>1.013237138279319</v>
+        <v>1.014978020502825</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041490616618032</v>
+        <v>1.041762442096682</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031803306857489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032002613792803</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020031617239699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9963778255799558</v>
+        <v>0.9974508448173939</v>
       </c>
       <c r="D21">
-        <v>1.011393035720034</v>
+        <v>1.012292143548408</v>
       </c>
       <c r="E21">
-        <v>1.014083328367066</v>
+        <v>1.015018182623931</v>
       </c>
       <c r="F21">
-        <v>1.023931511456837</v>
+        <v>1.024638121592845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050354209730232</v>
+        <v>1.050797295730352</v>
       </c>
       <c r="J21">
-        <v>1.026027772942457</v>
+        <v>1.027055533149286</v>
       </c>
       <c r="K21">
-        <v>1.026161731175076</v>
+        <v>1.027044320560005</v>
       </c>
       <c r="L21">
-        <v>1.028802711312429</v>
+        <v>1.029720509532252</v>
       </c>
       <c r="M21">
-        <v>1.038473248554202</v>
+        <v>1.039167282944154</v>
       </c>
       <c r="N21">
-        <v>1.012086795157241</v>
+        <v>1.014654359395067</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039021384477001</v>
+        <v>1.039570667082526</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029651321558327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030292266298817</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019485452952648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9928676585811345</v>
+        <v>0.9942966117285188</v>
       </c>
       <c r="D22">
-        <v>1.008812121813009</v>
+        <v>1.010117853164878</v>
       </c>
       <c r="E22">
-        <v>1.011375459393686</v>
+        <v>1.012606822902775</v>
       </c>
       <c r="F22">
-        <v>1.021397319316828</v>
+        <v>1.022332393206561</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049364806951605</v>
+        <v>1.04995352196647</v>
       </c>
       <c r="J22">
-        <v>1.023924120875794</v>
+        <v>1.025289189419569</v>
       </c>
       <c r="K22">
-        <v>1.024211007071942</v>
+        <v>1.025491503227583</v>
       </c>
       <c r="L22">
-        <v>1.026724885015588</v>
+        <v>1.027932605896169</v>
       </c>
       <c r="M22">
-        <v>1.036556483692173</v>
+        <v>1.037474053890357</v>
       </c>
       <c r="N22">
-        <v>1.011355676222758</v>
+        <v>1.014442182716919</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037504388875835</v>
+        <v>1.03823058683148</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028258461611979</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029179463433137</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019135166394964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9947185600736692</v>
+        <v>0.9959466094062456</v>
       </c>
       <c r="D23">
-        <v>1.010162985959626</v>
+        <v>1.011243203582</v>
       </c>
       <c r="E23">
-        <v>1.012800742649482</v>
+        <v>1.01386425067561</v>
       </c>
       <c r="F23">
-        <v>1.022733748704297</v>
+        <v>1.023539724031539</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049885579588979</v>
+        <v>1.050392146811207</v>
       </c>
       <c r="J23">
-        <v>1.025027229648163</v>
+        <v>1.026202030899727</v>
       </c>
       <c r="K23">
-        <v>1.025227553512497</v>
+        <v>1.026287442253193</v>
       </c>
       <c r="L23">
-        <v>1.027815769266346</v>
+        <v>1.028859398214739</v>
       </c>
       <c r="M23">
-        <v>1.037565203536002</v>
+        <v>1.03835648701383</v>
       </c>
       <c r="N23">
-        <v>1.011735857643228</v>
+        <v>1.014504972614403</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038302725889032</v>
+        <v>1.0389289753504</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028967503594769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029731581662141</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019309980863497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,102 +1803,120 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001867662288785</v>
+        <v>1.002390468455249</v>
       </c>
       <c r="D24">
-        <v>1.015413382933996</v>
+        <v>1.01568188252774</v>
       </c>
       <c r="E24">
-        <v>1.018326409475325</v>
+        <v>1.018804105992852</v>
       </c>
       <c r="F24">
-        <v>1.027914253017155</v>
+        <v>1.028268170402547</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051870345619413</v>
+        <v>1.052087131680071</v>
       </c>
       <c r="J24">
-        <v>1.029294007150186</v>
+        <v>1.02979680876542</v>
       </c>
       <c r="K24">
-        <v>1.029175123058132</v>
+        <v>1.029439091911026</v>
       </c>
       <c r="L24">
-        <v>1.032039158879119</v>
+        <v>1.032508856048087</v>
       </c>
       <c r="M24">
-        <v>1.041468276727591</v>
+        <v>1.041816407860259</v>
       </c>
       <c r="N24">
-        <v>1.013211733997252</v>
+        <v>1.014958116270262</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041391749433706</v>
+        <v>1.041667271490914</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031751106030035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03195165090947</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020015102430963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009841040514264</v>
+        <v>1.009780072056085</v>
       </c>
       <c r="D25">
-        <v>1.021302500322359</v>
+        <v>1.020832445873342</v>
       </c>
       <c r="E25">
-        <v>1.024522572831509</v>
+        <v>1.024522465721765</v>
       </c>
       <c r="F25">
-        <v>1.033730910599455</v>
+        <v>1.033713461452077</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054019215657238</v>
+        <v>1.053994236660593</v>
       </c>
       <c r="J25">
-        <v>1.03404169333338</v>
+        <v>1.033982721743646</v>
       </c>
       <c r="K25">
-        <v>1.03357888383157</v>
+        <v>1.033115748909425</v>
       </c>
       <c r="L25">
-        <v>1.036751771260686</v>
+        <v>1.036751665714208</v>
       </c>
       <c r="M25">
-        <v>1.045827228553433</v>
+        <v>1.045810028371974</v>
       </c>
       <c r="N25">
-        <v>1.014853580379839</v>
+        <v>1.016045097442166</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044841555089099</v>
+        <v>1.044827942379934</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034861937063224</v>
+        <v>1.0345480532812</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020854955650926</v>
       </c>
     </row>
   </sheetData>
